--- a/POWER BI/Aula 1 - Importando Base de Dados/EX. 1/BaseFuncionarios.xlsx
+++ b/POWER BI/Aula 1 - Importando Base de Dados/EX. 1/BaseFuncionarios.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29022"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hashtagtreinamentos-my.sharepoint.com/personal/diego_hashtagtreinamentos_com/Documents/Hashtag/Cursos/Aulas Power BI/Power BI Impressionador 2.0/Outros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{F59F741E-FF1B-4F23-8E24-3721807B79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3264B2A-7607-4770-B44F-ABD578104A8E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{F59F741E-FF1B-4F23-8E24-3721807B79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27A0F198-32DA-4987-8D0F-4CBF4F857C0B}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="BaseFuncionários" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,848 +38,848 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="279">
   <si>
+    <t>Extração do sistema - Planilha Funcionários Hashtag Eletro</t>
+  </si>
+  <si>
     <t>ID RH</t>
   </si>
   <si>
     <t>Nome Completo</t>
   </si>
   <si>
+    <t>Genero</t>
+  </si>
+  <si>
     <t>Data de Nascimento</t>
   </si>
   <si>
+    <t>Endereço Sede</t>
+  </si>
+  <si>
     <t>Data de Contratacao</t>
   </si>
   <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Cargo - Area</t>
+  </si>
+  <si>
+    <t>Avaliação do Funcionário</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>Flávio Barbosa</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>R. Visc. de Pirajá, 136 - Ipanema, Rio de Janeiro - RJ, 22410-000</t>
+  </si>
+  <si>
+    <t>Analista - Administrativo</t>
+  </si>
+  <si>
+    <t>Luíza Roussef</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R. Dr. Antônio Castro Prado, 422 - Vila Rossi e Borchi, Campinas - SP, 13076-130</t>
+  </si>
+  <si>
+    <t>Estagiário - Administrativo</t>
+  </si>
+  <si>
+    <t>Isabelle de Sá Foly</t>
+  </si>
+  <si>
+    <t>Rua Antônio Lumack do Monte, 203 - 1 - Boa Viagem, Recife - PE, 51020-350</t>
+  </si>
+  <si>
+    <t>Giuseppe Fernandes</t>
+  </si>
+  <si>
+    <t>Coordenador - Logística</t>
+  </si>
+  <si>
+    <t>Luiz Ladogano</t>
+  </si>
+  <si>
+    <t>R. Teodoro Sampaio, 954 - Pinheiros, São Paulo - SP, 05406-050</t>
+  </si>
+  <si>
+    <t>Analista - Financeiro</t>
+  </si>
+  <si>
+    <t>Lucas Procaci</t>
+  </si>
+  <si>
+    <t>Roberta Vaz</t>
+  </si>
+  <si>
+    <t>Av. Borges de Medeiros, 3120 - Praia de Belas, Porto Alegre - RS, 90110-150</t>
+  </si>
+  <si>
+    <t>Estagiário - Comercial</t>
+  </si>
+  <si>
+    <t>Gabriela Coutinho</t>
+  </si>
+  <si>
+    <t>Av. Goiás Norte, 3.592 - quadra 2.1 - St. Mal. Rondon, Goiânia - GO, 74063-010</t>
+  </si>
+  <si>
+    <t>Eduardo Ramos</t>
+  </si>
+  <si>
+    <t>Lucas Alvim</t>
+  </si>
+  <si>
+    <t>Shopping Barra - Av. Centenário, 2992 - Barra, Salvador - BA, 40155-150</t>
+  </si>
+  <si>
+    <t>Gerente - Operações</t>
+  </si>
+  <si>
+    <t>Frederico Vidal</t>
+  </si>
+  <si>
+    <t>R. Brasílio Itiberê, 3279 - Água Verde, Curitiba - PR, 80250-160</t>
+  </si>
+  <si>
+    <t>Analista - Comercial</t>
+  </si>
+  <si>
+    <t>Gabriel Pereira</t>
+  </si>
+  <si>
+    <t>Coordenador - Operações</t>
+  </si>
+  <si>
+    <t>Amanda Rodrigues</t>
+  </si>
+  <si>
+    <t>Analista - Logística</t>
+  </si>
+  <si>
+    <t>José Guimarães</t>
+  </si>
+  <si>
+    <t>Analista - Operações</t>
+  </si>
+  <si>
+    <t>Isabella Meirelles</t>
+  </si>
+  <si>
+    <t>Carolina Monteiro</t>
+  </si>
+  <si>
+    <t>Coordenador - Financeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bárbara Gonçalves </t>
+  </si>
+  <si>
+    <t>Amanda Marinho</t>
+  </si>
+  <si>
+    <t>Luiz de Mattos</t>
+  </si>
+  <si>
+    <t>Bruna Santos Oliveira</t>
+  </si>
+  <si>
+    <t>Luiz Viana</t>
+  </si>
+  <si>
+    <t>Estagiário - Logística</t>
+  </si>
+  <si>
+    <t>Beatriz Machado Araujo</t>
+  </si>
+  <si>
+    <t>Brenda Lopes</t>
+  </si>
+  <si>
+    <t>Gerente - Comercial</t>
+  </si>
+  <si>
+    <t>Renan Steiner Costa</t>
+  </si>
+  <si>
+    <t>Carolina Calafate</t>
+  </si>
+  <si>
+    <t>Manuela Brum</t>
+  </si>
+  <si>
+    <t>Pedro Fontes</t>
+  </si>
+  <si>
+    <t>João Pereira Da Silva</t>
+  </si>
+  <si>
+    <t>Pedro Wermelinger Santos</t>
+  </si>
+  <si>
+    <t>Maria Freire de Souza</t>
+  </si>
+  <si>
+    <t>Estagiário - Operações</t>
+  </si>
+  <si>
+    <t>Nicolas Conceição Leite</t>
+  </si>
+  <si>
+    <t>Luiz Costa Vasconcellos</t>
+  </si>
+  <si>
+    <t>Aline de Souza</t>
+  </si>
+  <si>
+    <t>Gerente - Administrativo</t>
+  </si>
+  <si>
+    <t>Alfredo Machado Araujo</t>
+  </si>
+  <si>
+    <t>Coordenador - Administrativo</t>
+  </si>
+  <si>
+    <t>Stefan Silva</t>
+  </si>
+  <si>
+    <t>Av. Barão Homem de Melo, 1389 - Nova Granada, Belo Horizonte - MG, 30431-425</t>
+  </si>
+  <si>
+    <t>Mariana Martins</t>
+  </si>
+  <si>
+    <t>Guilherme Johnson</t>
+  </si>
+  <si>
     <t>Guilherme Nunez</t>
   </si>
   <si>
+    <t>Lorena Freire</t>
+  </si>
+  <si>
+    <t>Catarina Virginio</t>
+  </si>
+  <si>
+    <t>Camilla Ferraz</t>
+  </si>
+  <si>
+    <t>Saranna Lepore Pinheiro</t>
+  </si>
+  <si>
+    <t>Arthur Bispo</t>
+  </si>
+  <si>
+    <t>Luis Guimarães</t>
+  </si>
+  <si>
+    <t>Gabriel Mello</t>
+  </si>
+  <si>
+    <t>Caio Stellet</t>
+  </si>
+  <si>
+    <t>Myllena Nacif</t>
+  </si>
+  <si>
+    <t>Bernard Mello</t>
+  </si>
+  <si>
+    <t>Rodrigo Funcke</t>
+  </si>
+  <si>
+    <t>Gerente - Logística</t>
+  </si>
+  <si>
+    <t>Matheus Monteiro</t>
+  </si>
+  <si>
+    <t>Rafael Viana Santos</t>
+  </si>
+  <si>
+    <t>Leticia Mota</t>
+  </si>
+  <si>
+    <t>Adriano de Souza</t>
+  </si>
+  <si>
+    <t>Luis Morgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João de Araújo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick da Silva Farias </t>
+  </si>
+  <si>
+    <t>Matheus Rodrigues Luiz</t>
+  </si>
+  <si>
+    <t>Lorena Marinho</t>
+  </si>
+  <si>
+    <t>Poline Limp</t>
+  </si>
+  <si>
+    <t>Átila Godoy de Melo</t>
+  </si>
+  <si>
+    <t>Estagiário - Financeiro</t>
+  </si>
+  <si>
+    <t>Raquel Tavares</t>
+  </si>
+  <si>
+    <t>Fillipe Tupini</t>
+  </si>
+  <si>
+    <t>Emilaine Oliveira de Mello Silva</t>
+  </si>
+  <si>
+    <t>Gabriela Costa</t>
+  </si>
+  <si>
+    <t>Diretor - Logística</t>
+  </si>
+  <si>
+    <t>Lucas Alvarenga dos Santos</t>
+  </si>
+  <si>
+    <t>Lorena de Moraes Junior</t>
+  </si>
+  <si>
+    <t>Amanda de Lacerda</t>
+  </si>
+  <si>
+    <t>Marcelo Monnerat</t>
+  </si>
+  <si>
+    <t>Ana Fernandes Filardi</t>
+  </si>
+  <si>
+    <t>Luiza Monnerat</t>
+  </si>
+  <si>
+    <t>Bruna Jimenez Jimbo</t>
+  </si>
+  <si>
+    <t>Ébio Velucci</t>
+  </si>
+  <si>
+    <t>Flávio Jacques Gamboa Fernandez de Oliveira Netto</t>
+  </si>
+  <si>
+    <t>Rômulo Pedrazza</t>
+  </si>
+  <si>
+    <t>Leandro Coutinho</t>
+  </si>
+  <si>
+    <t>José do Vale Lisboa</t>
+  </si>
+  <si>
+    <t>Luis Figueiredo Gabriel</t>
+  </si>
+  <si>
+    <t>Luize da Costa</t>
+  </si>
+  <si>
+    <t>Thomaz Campelo da Silva</t>
+  </si>
+  <si>
+    <t>Tiago de Araújo Júnior</t>
+  </si>
+  <si>
+    <t>Luiza Garcia Soares</t>
+  </si>
+  <si>
+    <t>Mariana Schwenck Gullo</t>
+  </si>
+  <si>
+    <t>Gerente - Financeiro</t>
+  </si>
+  <si>
+    <t>Andre Campos</t>
+  </si>
+  <si>
+    <t>Bruno de Souza</t>
+  </si>
+  <si>
+    <t>Júlia Oliveira de Mello Silva</t>
+  </si>
+  <si>
+    <t>Manuela Abreu Braga Martins</t>
+  </si>
+  <si>
+    <t>Bruno Vargas</t>
+  </si>
+  <si>
+    <t>Cynthia Ribeiro</t>
+  </si>
+  <si>
+    <t>Marcelo Amaral Coelho</t>
+  </si>
+  <si>
+    <t>Jaqueline Rimolo de Menezes</t>
+  </si>
+  <si>
+    <t>Jeferson Ramos</t>
+  </si>
+  <si>
+    <t>Paula de Sousa Leite</t>
+  </si>
+  <si>
+    <t>Leonardo de Paula</t>
+  </si>
+  <si>
+    <t>Breno Franklin da Silva</t>
+  </si>
+  <si>
+    <t>Matheus Sepúlveda</t>
+  </si>
+  <si>
+    <t>Carolina Gonçalves Lixa Fontoura</t>
+  </si>
+  <si>
+    <t>Luiza Castro Guimarães</t>
+  </si>
+  <si>
+    <t>Coordenador - Comercial</t>
+  </si>
+  <si>
+    <t>Leticia Orichio</t>
+  </si>
+  <si>
+    <t>João Monteiro</t>
+  </si>
+  <si>
+    <t>Izabel Costa</t>
+  </si>
+  <si>
+    <t>Jéssica Neves Heimlich</t>
+  </si>
+  <si>
+    <t>Paulo Souza</t>
+  </si>
+  <si>
+    <t>Yasmini de Almeida Richa</t>
+  </si>
+  <si>
+    <t>Nathalia Melo Eiras</t>
+  </si>
+  <si>
+    <t>Clarissa Ferreira</t>
+  </si>
+  <si>
+    <t>Vitor Cordovil de Maglhães</t>
+  </si>
+  <si>
+    <t>Matheus Matta Marques</t>
+  </si>
+  <si>
+    <t>Lucas Luca Lima Barbosa</t>
+  </si>
+  <si>
+    <t>Yago Oliveira</t>
+  </si>
+  <si>
+    <t>Carlos Amorim</t>
+  </si>
+  <si>
+    <t>Julia Novaes Silva</t>
+  </si>
+  <si>
+    <t>Maryanna Ferraz</t>
+  </si>
+  <si>
+    <t>Carolina Araujo Sagrillo</t>
+  </si>
+  <si>
+    <t>Lígia Fernandes Filardi</t>
+  </si>
+  <si>
+    <t>Bernardo Silva</t>
+  </si>
+  <si>
+    <t>Matheus Rubio</t>
+  </si>
+  <si>
+    <t>Beatriz Barrozo</t>
+  </si>
+  <si>
+    <t>Nuno de Oliveira Sampaio</t>
+  </si>
+  <si>
+    <t>Arnôr Penedo</t>
+  </si>
+  <si>
+    <t>Luiz Guarçoni Migueis</t>
+  </si>
+  <si>
+    <t>Manuela Tavares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline Gaspar de Mattos      </t>
+  </si>
+  <si>
+    <t>Amanda Pessanha</t>
+  </si>
+  <si>
+    <t>Bruna Mello Varela</t>
+  </si>
+  <si>
+    <t>Daniel Pinto Anastácio Machado</t>
+  </si>
+  <si>
+    <t>Juliana Stockler</t>
+  </si>
+  <si>
+    <t>Gabriel Castro Cerqueira</t>
+  </si>
+  <si>
+    <t>Vinicius Monteiro</t>
+  </si>
+  <si>
+    <t>Ananda Garcia Soares</t>
+  </si>
+  <si>
+    <t>Rodrigo Venceslau Santos de Gusmão</t>
+  </si>
+  <si>
+    <t>Maria Lopes de Almeida</t>
+  </si>
+  <si>
+    <t>Thalles Jordão Teixeira</t>
+  </si>
+  <si>
+    <t>Bruno Paes Leme</t>
+  </si>
+  <si>
+    <t>Maria Mello</t>
+  </si>
+  <si>
+    <t>João Resinente</t>
+  </si>
+  <si>
+    <t>Renata Pinheiro</t>
+  </si>
+  <si>
+    <t>Julia Freitas</t>
+  </si>
+  <si>
+    <t>Bernardo de Lima Oliveira</t>
+  </si>
+  <si>
+    <t>Jéssica de Morais Silva</t>
+  </si>
+  <si>
+    <t>Carolina Marques</t>
+  </si>
+  <si>
+    <t>Flávio Silva Mendonça</t>
+  </si>
+  <si>
+    <t>Ana Bernardo</t>
+  </si>
+  <si>
+    <t>Leonardo Valença Castro</t>
+  </si>
+  <si>
+    <t>Pedro Jardim</t>
+  </si>
+  <si>
+    <t>Milena Brum</t>
+  </si>
+  <si>
+    <t>Aline Santos Silva</t>
+  </si>
+  <si>
+    <t>Michelle Zerbinato</t>
+  </si>
+  <si>
+    <t>Larissa Leal Pedrosa</t>
+  </si>
+  <si>
+    <t>Flávia Jordao</t>
+  </si>
+  <si>
+    <t>Carolina da Silva</t>
+  </si>
+  <si>
+    <t>Adelino Werneck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luisa da Costa  </t>
+  </si>
+  <si>
+    <t>Camila Fonseca Martinez</t>
+  </si>
+  <si>
+    <t>João Fagundes</t>
+  </si>
+  <si>
+    <t>Nicole Marquito de Paiva Torres</t>
+  </si>
+  <si>
+    <t>Priscila de Oliveira</t>
+  </si>
+  <si>
+    <t>Lucas Brum Pereira</t>
+  </si>
+  <si>
+    <t>Juliana Rodrigues</t>
+  </si>
+  <si>
+    <t>Felipe Sousa Melo</t>
+  </si>
+  <si>
+    <t>Patricia Vieira Branco de Matos</t>
+  </si>
+  <si>
+    <t>Flávio Fontes</t>
+  </si>
+  <si>
+    <t>Aline da Silva</t>
+  </si>
+  <si>
+    <t>Milena Cândido Xavier Ferreira</t>
+  </si>
+  <si>
+    <t>Nathalia Bach</t>
+  </si>
+  <si>
+    <t>Marianna Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Daniel Alvarenga dos Santos</t>
+  </si>
+  <si>
+    <t>Wesley de Melo Teixeira</t>
+  </si>
+  <si>
+    <t>José Cardeman</t>
+  </si>
+  <si>
+    <t>Eduardo Ota Hirose</t>
+  </si>
+  <si>
+    <t>André dos Santos Pereira Brito</t>
+  </si>
+  <si>
+    <t>Camila Regis Ivo</t>
+  </si>
+  <si>
+    <t>Jeferson Pinheiro Mariano</t>
+  </si>
+  <si>
+    <t>Ana de Almeida Fournier de Assis</t>
+  </si>
+  <si>
+    <t>Renan Taylor</t>
+  </si>
+  <si>
+    <t>Luana Lopes</t>
+  </si>
+  <si>
+    <t>Bruna Ferreira</t>
+  </si>
+  <si>
+    <t>Victor Fonseca</t>
+  </si>
+  <si>
+    <t>Bianca Aguiar</t>
+  </si>
+  <si>
+    <t>Luiza Sobrinho Pereira</t>
+  </si>
+  <si>
+    <t>Joāo Leite Ursulino</t>
+  </si>
+  <si>
+    <t>Isabella de Azevedo Alves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matheus Andrade Machado </t>
+  </si>
+  <si>
+    <t>Juan Santos Rosa</t>
+  </si>
+  <si>
+    <t>Rômulo Knudsen</t>
+  </si>
+  <si>
+    <t>Ighor Araujo Kelly</t>
+  </si>
+  <si>
+    <t>Andre Ribeiro da Costa</t>
+  </si>
+  <si>
+    <t>Giovana Marinho</t>
+  </si>
+  <si>
+    <t>Pedro Correa Rodriguez</t>
+  </si>
+  <si>
+    <t>Diego Limp</t>
+  </si>
+  <si>
+    <t>Higor Frossard</t>
+  </si>
+  <si>
+    <t>Rafael Hollander</t>
+  </si>
+  <si>
+    <t>Thaís Lisboa</t>
+  </si>
+  <si>
+    <t>Juan Fernandes de Araújo</t>
+  </si>
+  <si>
+    <t>Vinicius Freitas</t>
+  </si>
+  <si>
+    <t>Eduarda Chagas</t>
+  </si>
+  <si>
+    <t>Bruno Cunha Felippe</t>
+  </si>
+  <si>
+    <t>Renan Scharnhorst Ott</t>
+  </si>
+  <si>
+    <t>Rodrigo da Silva</t>
+  </si>
+  <si>
+    <t>Marcos Almeida Albuquerque Faria</t>
+  </si>
+  <si>
+    <t>Ana de Sá Foly</t>
+  </si>
+  <si>
+    <t>Suelen Lander Regasso</t>
+  </si>
+  <si>
+    <t>Raíza Barbosa</t>
+  </si>
+  <si>
+    <t>Eduardo Paes Leme</t>
+  </si>
+  <si>
+    <t>Arthur Vaz</t>
+  </si>
+  <si>
+    <t>Filipe Tabet</t>
+  </si>
+  <si>
+    <t>Lucas Martins</t>
+  </si>
+  <si>
+    <t>Bárbara Rodrigues</t>
+  </si>
+  <si>
+    <t>Rafael Carrera</t>
+  </si>
+  <si>
+    <t>Daniele Blumberg</t>
+  </si>
+  <si>
+    <t>Rafael Rodrigues de Sousa</t>
+  </si>
+  <si>
+    <t>Gabriela e Alves</t>
+  </si>
+  <si>
+    <t>Carolina Venceslau Santos de Gusmão</t>
+  </si>
+  <si>
+    <t>Giovanna Fahrnholz</t>
+  </si>
+  <si>
+    <t>Bruna Rocha de Carvalho</t>
+  </si>
+  <si>
     <t>Audir de Avila Goulart</t>
   </si>
   <si>
-    <t>Andre Campos</t>
-  </si>
-  <si>
-    <t>Vinicius Freitas</t>
+    <t>Bárbara Spenchutt Vieira</t>
+  </si>
+  <si>
+    <t>Amanda Ferreira</t>
+  </si>
+  <si>
+    <t>Andressa Queiroz Israel</t>
+  </si>
+  <si>
+    <t>Igor Feijo</t>
+  </si>
+  <si>
+    <t>Carolina Croix Barros</t>
+  </si>
+  <si>
+    <t>Bruna Tavares Vasconcelos</t>
+  </si>
+  <si>
+    <t>Fernanda do Nascimento Rocha</t>
+  </si>
+  <si>
+    <t>Isabella Delgado Fernandes</t>
+  </si>
+  <si>
+    <t>Nathália Fernandes de Araújo</t>
+  </si>
+  <si>
+    <t>Roberto Leite</t>
   </si>
   <si>
     <t>Isabella Bernardo</t>
   </si>
   <si>
-    <t>Felipe Sousa Melo</t>
-  </si>
-  <si>
-    <t>Pedro Fontes</t>
-  </si>
-  <si>
-    <t>Bruno Vargas</t>
-  </si>
-  <si>
-    <t>Bárbara Spenchutt Vieira</t>
-  </si>
-  <si>
-    <t>Jéssica Neves Heimlich</t>
-  </si>
-  <si>
-    <t>Carolina Monteiro</t>
-  </si>
-  <si>
-    <t>Gabriela Coutinho</t>
-  </si>
-  <si>
-    <t>Luana Lopes</t>
-  </si>
-  <si>
-    <t>Vitor Cordovil de Maglhães</t>
-  </si>
-  <si>
-    <t>Marcos Almeida Albuquerque Faria</t>
-  </si>
-  <si>
-    <t>Marcelo Amaral Coelho</t>
-  </si>
-  <si>
-    <t>Leticia Mota</t>
-  </si>
-  <si>
-    <t>Mariana Martins</t>
-  </si>
-  <si>
-    <t>Marianna Pereira da Silva</t>
-  </si>
-  <si>
-    <t>Matheus Sepúlveda</t>
-  </si>
-  <si>
-    <t>Jéssica de Morais Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick da Silva Farias </t>
-  </si>
-  <si>
-    <t>Lorena Marinho</t>
-  </si>
-  <si>
-    <t>Fillipe Tupini</t>
-  </si>
-  <si>
-    <t>Michelle Zerbinato</t>
-  </si>
-  <si>
-    <t>Luiz Guarçoni Migueis</t>
-  </si>
-  <si>
-    <t>João Monteiro</t>
-  </si>
-  <si>
-    <t>Poline Limp</t>
-  </si>
-  <si>
-    <t>Leonardo Valença Castro</t>
-  </si>
-  <si>
-    <t>Átila Godoy de Melo</t>
-  </si>
-  <si>
-    <t>Nicole Marquito de Paiva Torres</t>
-  </si>
-  <si>
-    <t>Bruno de Souza</t>
-  </si>
-  <si>
-    <t>Gabriel Castro Cerqueira</t>
-  </si>
-  <si>
-    <t>Frederico Vidal</t>
-  </si>
-  <si>
-    <t>Giuseppe Fernandes</t>
-  </si>
-  <si>
-    <t>Aline de Souza</t>
-  </si>
-  <si>
-    <t>Roberto Leite</t>
-  </si>
-  <si>
-    <t>Bruna Tavares Vasconcelos</t>
-  </si>
-  <si>
-    <t>Rafael Hollander</t>
-  </si>
-  <si>
-    <t>Amanda Ferreira</t>
-  </si>
-  <si>
-    <t>João Fagundes</t>
-  </si>
-  <si>
-    <t>Brenda Lopes</t>
-  </si>
-  <si>
-    <t>Rafael Viana Santos</t>
-  </si>
-  <si>
-    <t>Adriano de Souza</t>
-  </si>
-  <si>
-    <t>Roberta Vaz</t>
-  </si>
-  <si>
-    <t>José Cardeman</t>
-  </si>
-  <si>
-    <t>Higor Frossard</t>
-  </si>
-  <si>
-    <t>Aline Santos Silva</t>
-  </si>
-  <si>
-    <t>Pedro Wermelinger Santos</t>
-  </si>
-  <si>
-    <t>Bruno Cunha Felippe</t>
-  </si>
-  <si>
-    <t>Flávio Jacques Gamboa Fernandez de Oliveira Netto</t>
-  </si>
-  <si>
-    <t>Lucas Martins</t>
-  </si>
-  <si>
-    <t>Thaís Lisboa</t>
-  </si>
-  <si>
-    <t>Carolina Gonçalves Lixa Fontoura</t>
-  </si>
-  <si>
-    <t>Isabelle de Sá Foly</t>
-  </si>
-  <si>
-    <t>Renan Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caroline Gaspar de Mattos      </t>
-  </si>
-  <si>
-    <t>Maria Lopes de Almeida</t>
-  </si>
-  <si>
-    <t>Gabriel Mello</t>
-  </si>
-  <si>
-    <t>Renan Scharnhorst Ott</t>
-  </si>
-  <si>
-    <t>Lucas Brum Pereira</t>
-  </si>
-  <si>
-    <t>Arnôr Penedo</t>
-  </si>
-  <si>
-    <t>Carolina da Silva</t>
-  </si>
-  <si>
-    <t>Caio Stellet</t>
-  </si>
-  <si>
-    <t>Carolina Croix Barros</t>
-  </si>
-  <si>
-    <t>Izabel Costa</t>
-  </si>
-  <si>
-    <t>Amanda Rodrigues</t>
-  </si>
-  <si>
     <t>Hannah de Oliveira</t>
   </si>
   <si>
-    <t>Eduardo Ramos</t>
-  </si>
-  <si>
-    <t>Yasmini de Almeida Richa</t>
-  </si>
-  <si>
-    <t>Lígia Fernandes Filardi</t>
+    <t>Vitor Almeida da Silveira</t>
+  </si>
+  <si>
+    <t>Marina Lobo Meira</t>
+  </si>
+  <si>
+    <t>Lucas Short Santa Cecilia</t>
   </si>
   <si>
     <t xml:space="preserve">Guilherme Lopes da Silveira </t>
   </si>
   <si>
-    <t>Luis Guimarães</t>
-  </si>
-  <si>
-    <t>Giovana Marinho</t>
-  </si>
-  <si>
-    <t>Filipe Tabet</t>
-  </si>
-  <si>
-    <t>Tiago de Araújo Júnior</t>
-  </si>
-  <si>
-    <t>Joāo Leite Ursulino</t>
-  </si>
-  <si>
-    <t>Jaqueline Rimolo de Menezes</t>
-  </si>
-  <si>
-    <t>Clarissa Ferreira</t>
-  </si>
-  <si>
-    <t>Raíza Barbosa</t>
-  </si>
-  <si>
-    <t>Rafael Carrera</t>
-  </si>
-  <si>
-    <t>Leonardo de Paula</t>
-  </si>
-  <si>
-    <t>Rômulo Knudsen</t>
-  </si>
-  <si>
-    <t>Bernard Mello</t>
-  </si>
-  <si>
-    <t>Eduardo Ota Hirose</t>
-  </si>
-  <si>
-    <t>Adelino Werneck</t>
-  </si>
-  <si>
-    <t>Marina Lobo Meira</t>
-  </si>
-  <si>
-    <t>Leticia Orichio</t>
-  </si>
-  <si>
-    <t>Leandro Coutinho</t>
-  </si>
-  <si>
-    <t>Isabella de Azevedo Alves</t>
-  </si>
-  <si>
-    <t>Manuela Brum</t>
-  </si>
-  <si>
-    <t>Matheus Matta Marques</t>
-  </si>
-  <si>
-    <t>Ana de Almeida Fournier de Assis</t>
-  </si>
-  <si>
-    <t>Paula de Sousa Leite</t>
-  </si>
-  <si>
-    <t>Amanda Pessanha</t>
-  </si>
-  <si>
-    <t>Pedro Correa Rodriguez</t>
-  </si>
-  <si>
-    <t>Patricia Vieira Branco de Matos</t>
-  </si>
-  <si>
-    <t>Diego Limp</t>
-  </si>
-  <si>
-    <t>Rômulo Pedrazza</t>
-  </si>
-  <si>
-    <t>Lucas Luca Lima Barbosa</t>
-  </si>
-  <si>
-    <t>Nathalia Bach</t>
-  </si>
-  <si>
-    <t>Maryanna Ferraz</t>
-  </si>
-  <si>
-    <t>Luis Morgado</t>
-  </si>
-  <si>
-    <t>Ananda Garcia Soares</t>
-  </si>
-  <si>
-    <t>Carolina Venceslau Santos de Gusmão</t>
-  </si>
-  <si>
     <t>Paula Mota</t>
   </si>
   <si>
-    <t>Juliana Rodrigues</t>
-  </si>
-  <si>
-    <t>Lorena de Moraes Junior</t>
-  </si>
-  <si>
-    <t>Priscila de Oliveira</t>
-  </si>
-  <si>
-    <t>Rodrigo da Silva</t>
-  </si>
-  <si>
-    <t>Catarina Virginio</t>
-  </si>
-  <si>
-    <t>Manuela Tavares</t>
-  </si>
-  <si>
-    <t>Bruna Ferreira</t>
-  </si>
-  <si>
-    <t>Eduarda Chagas</t>
-  </si>
-  <si>
-    <t>Luiza Castro Guimarães</t>
-  </si>
-  <si>
-    <t>José Guimarães</t>
-  </si>
-  <si>
-    <t>Isabella Delgado Fernandes</t>
-  </si>
-  <si>
-    <t>Luiz Ladogano</t>
-  </si>
-  <si>
-    <t>Luiz Viana</t>
-  </si>
-  <si>
-    <t>Andressa Queiroz Israel</t>
-  </si>
-  <si>
-    <t>Andre Ribeiro da Costa</t>
-  </si>
-  <si>
-    <t>Beatriz Machado Araujo</t>
-  </si>
-  <si>
-    <t>Bruna Jimenez Jimbo</t>
-  </si>
-  <si>
-    <t>Amanda de Lacerda</t>
-  </si>
-  <si>
-    <t>Flávio Fontes</t>
-  </si>
-  <si>
-    <t>Isabella Meirelles</t>
-  </si>
-  <si>
-    <t>Renata Pinheiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matheus Andrade Machado </t>
-  </si>
-  <si>
-    <t>Júlia Oliveira de Mello Silva</t>
-  </si>
-  <si>
-    <t>Milena Brum</t>
-  </si>
-  <si>
-    <t>Camila Fonseca Martinez</t>
-  </si>
-  <si>
-    <t>Flávia Jordao</t>
-  </si>
-  <si>
-    <t>Gabriel Pereira</t>
-  </si>
-  <si>
-    <t>Jeferson Ramos</t>
-  </si>
-  <si>
-    <t>Paulo Souza</t>
-  </si>
-  <si>
-    <t>Aline da Silva</t>
-  </si>
-  <si>
-    <t>Bruna Mello Varela</t>
-  </si>
-  <si>
-    <t>Luiza Sobrinho Pereira</t>
-  </si>
-  <si>
-    <t>Rafael Rodrigues de Sousa</t>
-  </si>
-  <si>
-    <t>Camila Regis Ivo</t>
-  </si>
-  <si>
     <t>Karine Cardoso das Chagas</t>
   </si>
   <si>
-    <t>Myllena Nacif</t>
-  </si>
-  <si>
-    <t>Flávio Barbosa</t>
-  </si>
-  <si>
-    <t>Igor Feijo</t>
-  </si>
-  <si>
-    <t>João Pereira Da Silva</t>
-  </si>
-  <si>
-    <t>Gabriela Costa</t>
-  </si>
-  <si>
-    <t>Luíza Roussef</t>
-  </si>
-  <si>
-    <t>Juan Santos Rosa</t>
-  </si>
-  <si>
-    <t>Ana de Sá Foly</t>
-  </si>
-  <si>
-    <t>Raquel Tavares</t>
-  </si>
-  <si>
-    <t>Eduardo Paes Leme</t>
-  </si>
-  <si>
-    <t>Rodrigo Funcke</t>
-  </si>
-  <si>
-    <t>Alfredo Machado Araujo</t>
-  </si>
-  <si>
-    <t>Matheus Monteiro</t>
-  </si>
-  <si>
-    <t>Thalles Jordão Teixeira</t>
-  </si>
-  <si>
-    <t>Daniel Alvarenga dos Santos</t>
-  </si>
-  <si>
-    <t>Suelen Lander Regasso</t>
-  </si>
-  <si>
-    <t>Lorena Freire</t>
-  </si>
-  <si>
-    <t>Lucas Short Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Juliana Stockler</t>
-  </si>
-  <si>
-    <t>Larissa Leal Pedrosa</t>
-  </si>
-  <si>
-    <t>Bárbara Rodrigues</t>
-  </si>
-  <si>
-    <t>Arthur Vaz</t>
-  </si>
-  <si>
-    <t>Bernardo de Lima Oliveira</t>
-  </si>
-  <si>
-    <t>Luiz Costa Vasconcellos</t>
-  </si>
-  <si>
-    <t>Mariana Schwenck Gullo</t>
-  </si>
-  <si>
-    <t>Carlos Amorim</t>
-  </si>
-  <si>
-    <t>Bianca Aguiar</t>
-  </si>
-  <si>
-    <t>Renan Steiner Costa</t>
-  </si>
-  <si>
-    <t>Jeferson Pinheiro Mariano</t>
-  </si>
-  <si>
-    <t>Saranna Lepore Pinheiro</t>
-  </si>
-  <si>
-    <t>Cynthia Ribeiro</t>
-  </si>
-  <si>
-    <t>Ana Bernardo</t>
-  </si>
-  <si>
-    <t>Matheus Rubio</t>
-  </si>
-  <si>
-    <t>Fernanda do Nascimento Rocha</t>
-  </si>
-  <si>
-    <t>Gabriela e Alves</t>
-  </si>
-  <si>
-    <t>Camilla Ferraz</t>
-  </si>
-  <si>
-    <t>Nathalia Melo Eiras</t>
-  </si>
-  <si>
-    <t>Lucas Alvarenga dos Santos</t>
-  </si>
-  <si>
-    <t>Carolina Araujo Sagrillo</t>
-  </si>
-  <si>
-    <t>Matheus Rodrigues Luiz</t>
-  </si>
-  <si>
-    <t>Giovanna Fahrnholz</t>
-  </si>
-  <si>
     <t>Rafael Oliveira Leite Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">João de Araújo  </t>
-  </si>
-  <si>
-    <t>Ighor Araujo Kelly</t>
-  </si>
-  <si>
-    <t>Amanda Marinho</t>
-  </si>
-  <si>
-    <t>Julia Freitas</t>
-  </si>
-  <si>
-    <t>Emilaine Oliveira de Mello Silva</t>
-  </si>
-  <si>
-    <t>Vitor Almeida da Silveira</t>
-  </si>
-  <si>
-    <t>Juan Fernandes de Araújo</t>
-  </si>
-  <si>
-    <t>Maria Freire de Souza</t>
-  </si>
-  <si>
-    <t>Guilherme Johnson</t>
-  </si>
-  <si>
-    <t>Ana Fernandes Filardi</t>
-  </si>
-  <si>
-    <t>José do Vale Lisboa</t>
-  </si>
-  <si>
-    <t>Rodrigo Venceslau Santos de Gusmão</t>
-  </si>
-  <si>
-    <t>Milena Cândido Xavier Ferreira</t>
-  </si>
-  <si>
-    <t>Beatriz Barrozo</t>
-  </si>
-  <si>
-    <t>Luiza Garcia Soares</t>
-  </si>
-  <si>
-    <t>Marcelo Monnerat</t>
-  </si>
-  <si>
-    <t>Vinicius Monteiro</t>
-  </si>
-  <si>
-    <t>Lucas Procaci</t>
-  </si>
-  <si>
-    <t>Wesley de Melo Teixeira</t>
-  </si>
-  <si>
-    <t>Luis Figueiredo Gabriel</t>
-  </si>
-  <si>
-    <t>Luiza Monnerat</t>
-  </si>
-  <si>
-    <t>Luiz de Mattos</t>
-  </si>
-  <si>
-    <t>André dos Santos Pereira Brito</t>
-  </si>
-  <si>
-    <t>Lucas Alvim</t>
-  </si>
-  <si>
-    <t>Bruna Santos Oliveira</t>
-  </si>
-  <si>
-    <t>Daniel Pinto Anastácio Machado</t>
-  </si>
-  <si>
-    <t>Breno Franklin da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luisa da Costa  </t>
-  </si>
-  <si>
-    <t>Stefan Silva</t>
-  </si>
-  <si>
-    <t>Pedro Jardim</t>
-  </si>
-  <si>
-    <t>Thomaz Campelo da Silva</t>
-  </si>
-  <si>
-    <t>Carolina Marques</t>
-  </si>
-  <si>
-    <t>Nicolas Conceição Leite</t>
-  </si>
-  <si>
-    <t>João Resinente</t>
-  </si>
-  <si>
-    <t>Luize da Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bárbara Gonçalves </t>
-  </si>
-  <si>
-    <t>Carolina Calafate</t>
-  </si>
-  <si>
-    <t>Bruna Rocha de Carvalho</t>
-  </si>
-  <si>
-    <t>Bruno Paes Leme</t>
-  </si>
-  <si>
-    <t>Yago Oliveira</t>
-  </si>
-  <si>
-    <t>Maria Mello</t>
-  </si>
-  <si>
-    <t>Nuno de Oliveira Sampaio</t>
-  </si>
-  <si>
-    <t>Manuela Abreu Braga Martins</t>
-  </si>
-  <si>
-    <t>Flávio Silva Mendonça</t>
-  </si>
-  <si>
-    <t>Ébio Velucci</t>
-  </si>
-  <si>
-    <t>Victor Fonseca</t>
-  </si>
-  <si>
-    <t>Bernardo Silva</t>
-  </si>
-  <si>
-    <t>Nathália Fernandes de Araújo</t>
-  </si>
-  <si>
-    <t>Daniele Blumberg</t>
-  </si>
-  <si>
-    <t>Julia Novaes Silva</t>
-  </si>
-  <si>
-    <t>Arthur Bispo</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Avaliação do Funcionário</t>
-  </si>
-  <si>
-    <t>Salario</t>
-  </si>
-  <si>
-    <t>Genero</t>
-  </si>
-  <si>
-    <t>VR</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>R. Visc. de Pirajá, 136 - Ipanema, Rio de Janeiro - RJ, 22410-000</t>
-  </si>
-  <si>
-    <t>R. Dr. Antônio Castro Prado, 422 - Vila Rossi e Borchi, Campinas - SP, 13076-130</t>
-  </si>
-  <si>
-    <t>Rua Antônio Lumack do Monte, 203 - 1 - Boa Viagem, Recife - PE, 51020-350</t>
-  </si>
-  <si>
-    <t>R. Teodoro Sampaio, 954 - Pinheiros, São Paulo - SP, 05406-050</t>
-  </si>
-  <si>
-    <t>Av. Borges de Medeiros, 3120 - Praia de Belas, Porto Alegre - RS, 90110-150</t>
-  </si>
-  <si>
-    <t>Av. Goiás Norte, 3.592 - quadra 2.1 - St. Mal. Rondon, Goiânia - GO, 74063-010</t>
-  </si>
-  <si>
-    <t>Shopping Barra - Av. Centenário, 2992 - Barra, Salvador - BA, 40155-150</t>
-  </si>
-  <si>
-    <t>R. Brasílio Itiberê, 3279 - Água Verde, Curitiba - PR, 80250-160</t>
-  </si>
-  <si>
-    <t>Av. Barão Homem de Melo, 1389 - Nova Granada, Belo Horizonte - MG, 30431-425</t>
-  </si>
-  <si>
-    <t>Endereço Sede</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>Cargo - Area</t>
-  </si>
-  <si>
-    <t>Analista - Administrativo</t>
-  </si>
-  <si>
-    <t>Estagiário - Administrativo</t>
-  </si>
-  <si>
-    <t>Coordenador - Logística</t>
-  </si>
-  <si>
-    <t>Analista - Financeiro</t>
-  </si>
-  <si>
-    <t>Estagiário - Comercial</t>
-  </si>
-  <si>
-    <t>Gerente - Operações</t>
-  </si>
-  <si>
-    <t>Analista - Comercial</t>
-  </si>
-  <si>
-    <t>Coordenador - Operações</t>
-  </si>
-  <si>
-    <t>Analista - Logística</t>
-  </si>
-  <si>
-    <t>Analista - Operações</t>
-  </si>
-  <si>
-    <t>Coordenador - Financeiro</t>
-  </si>
-  <si>
-    <t>Estagiário - Logística</t>
-  </si>
-  <si>
-    <t>Gerente - Comercial</t>
-  </si>
-  <si>
-    <t>Estagiário - Operações</t>
-  </si>
-  <si>
-    <t>Gerente - Administrativo</t>
-  </si>
-  <si>
-    <t>Coordenador - Administrativo</t>
-  </si>
-  <si>
-    <t>Gerente - Logística</t>
-  </si>
-  <si>
-    <t>Estagiário - Financeiro</t>
-  </si>
-  <si>
-    <t>Diretor - Logística</t>
-  </si>
-  <si>
-    <t>Gerente - Financeiro</t>
-  </si>
-  <si>
-    <t>Coordenador - Comercial</t>
-  </si>
-  <si>
-    <t>Extração do sistema - Planilha Funcionários Hashtag Eletro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1233,79 +1233,79 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>243</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5">
         <v>27889</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>41673</v>
@@ -1320,7 +1320,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K4" s="4">
         <v>9.6</v>
@@ -1329,21 +1329,21 @@
         <v>288351170</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>35104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5">
         <v>41674</v>
@@ -1358,7 +1358,7 @@
         <v>240</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4">
         <v>8.4</v>
@@ -1367,21 +1367,21 @@
         <v>407347440</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>27250</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>41679</v>
@@ -1396,7 +1396,7 @@
         <v>200</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K6" s="4">
         <v>9.6</v>
@@ -1405,21 +1405,21 @@
         <v>366661967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5">
         <v>31045</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5">
         <v>41680</v>
@@ -1434,7 +1434,7 @@
         <v>200</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K7" s="4">
         <v>6.4</v>
@@ -1443,21 +1443,21 @@
         <v>402615153</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5">
         <v>31188</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5">
         <v>41682</v>
@@ -1472,7 +1472,7 @@
         <v>240</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K8" s="4">
         <v>6.8</v>
@@ -1481,21 +1481,21 @@
         <v>433771340</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5">
         <v>35142</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5">
         <v>41712</v>
@@ -1510,7 +1510,7 @@
         <v>180</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K9" s="4">
         <v>9.6</v>
@@ -1519,21 +1519,21 @@
         <v>413653132</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5">
         <v>35170</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5">
         <v>41740</v>
@@ -1548,7 +1548,7 @@
         <v>200</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K10" s="4">
         <v>8.6</v>
@@ -1557,21 +1557,21 @@
         <v>315957972</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5">
         <v>31657</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5">
         <v>41743</v>
@@ -1586,7 +1586,7 @@
         <v>200</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K11" s="4">
         <v>7.2</v>
@@ -1595,21 +1595,21 @@
         <v>385756759</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5">
         <v>27727</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5">
         <v>41774</v>
@@ -1624,7 +1624,7 @@
         <v>160</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K12" s="4">
         <v>7.8</v>
@@ -1633,21 +1633,21 @@
         <v>307926429</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5">
         <v>35212</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
         <v>41782</v>
@@ -1662,7 +1662,7 @@
         <v>180</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="K13" s="4">
         <v>5.8</v>
@@ -1671,21 +1671,21 @@
         <v>370372183</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5">
         <v>32648</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F14" s="5">
         <v>41787</v>
@@ -1700,7 +1700,7 @@
         <v>200</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K14" s="4">
         <v>8</v>
@@ -1709,21 +1709,21 @@
         <v>338975103</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5">
         <v>35217</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5">
         <v>41787</v>
@@ -1738,7 +1738,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K15" s="4">
         <v>7.2</v>
@@ -1747,21 +1747,21 @@
         <v>369219906</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5">
         <v>32280</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F16" s="5">
         <v>41827</v>
@@ -1776,7 +1776,7 @@
         <v>180</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K16" s="4">
         <v>8.6</v>
@@ -1785,21 +1785,21 @@
         <v>314621049</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5">
         <v>30959</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5">
         <v>41846</v>
@@ -1814,7 +1814,7 @@
         <v>180</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K17" s="4">
         <v>7</v>
@@ -1823,21 +1823,21 @@
         <v>393926263</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5">
         <v>30787</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5">
         <v>41851</v>
@@ -1852,7 +1852,7 @@
         <v>200</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K18" s="4">
         <v>7.4</v>
@@ -1861,21 +1861,21 @@
         <v>257572255</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5">
         <v>34774</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F19" s="5">
         <v>41852</v>
@@ -1890,7 +1890,7 @@
         <v>200</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K19" s="4">
         <v>9</v>
@@ -1899,21 +1899,21 @@
         <v>257922163</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5">
         <v>35326</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5">
         <v>41896</v>
@@ -1928,7 +1928,7 @@
         <v>160</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K20" s="4">
         <v>8.6</v>
@@ -1937,21 +1937,21 @@
         <v>349423167</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D21" s="5">
         <v>31829</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F21" s="5">
         <v>41898</v>
@@ -1966,7 +1966,7 @@
         <v>200</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K21" s="4">
         <v>9.4</v>
@@ -1975,21 +1975,21 @@
         <v>338369948</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D22" s="5">
         <v>35338</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F22" s="5">
         <v>41908</v>
@@ -2004,7 +2004,7 @@
         <v>180</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K22" s="4">
         <v>6</v>
@@ -2013,21 +2013,21 @@
         <v>429701334</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5">
         <v>28799</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F23" s="5">
         <v>41923</v>
@@ -2042,7 +2042,7 @@
         <v>180</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K23" s="4">
         <v>8.6</v>
@@ -2051,21 +2051,21 @@
         <v>352702594</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D24" s="5">
         <v>32130</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F24" s="5">
         <v>41942</v>
@@ -2080,7 +2080,7 @@
         <v>160</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K24" s="4">
         <v>7.4</v>
@@ -2089,21 +2089,21 @@
         <v>257626141</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D25" s="5">
         <v>32701</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5">
         <v>41943</v>
@@ -2118,7 +2118,7 @@
         <v>180</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K25" s="4">
         <v>8.8000000000000007</v>
@@ -2127,21 +2127,21 @@
         <v>369325433</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5">
         <v>28573</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F26" s="5">
         <v>42000</v>
@@ -2156,7 +2156,7 @@
         <v>180</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="K26" s="4">
         <v>9.4</v>
@@ -2165,21 +2165,21 @@
         <v>434495042</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5">
         <v>35445</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F27" s="5">
         <v>42015</v>
@@ -2194,7 +2194,7 @@
         <v>240</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K27" s="4">
         <v>6.4</v>
@@ -2203,21 +2203,21 @@
         <v>253313070</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5">
         <v>35447</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F28" s="5">
         <v>42017</v>
@@ -2232,7 +2232,7 @@
         <v>160</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K28" s="4">
         <v>9.6</v>
@@ -2241,21 +2241,21 @@
         <v>268417219</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D29" s="5">
         <v>28406</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F29" s="5">
         <v>42028</v>
@@ -2270,7 +2270,7 @@
         <v>180</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K29" s="4">
         <v>8.6</v>
@@ -2279,21 +2279,21 @@
         <v>242597571</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D30" s="5">
         <v>35460</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5">
         <v>42030</v>
@@ -2308,7 +2308,7 @@
         <v>200</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K30" s="4">
         <v>7.2</v>
@@ -2317,21 +2317,21 @@
         <v>381799849</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5">
         <v>35476</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5">
         <v>42046</v>
@@ -2346,7 +2346,7 @@
         <v>240</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K31" s="4">
         <v>7.4</v>
@@ -2355,21 +2355,21 @@
         <v>436299864</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D32" s="5">
         <v>34568</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F32" s="5">
         <v>42066</v>
@@ -2384,7 +2384,7 @@
         <v>200</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K32" s="4">
         <v>9</v>
@@ -2393,21 +2393,21 @@
         <v>224009817</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D33" s="5">
         <v>33446</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F33" s="5">
         <v>42073</v>
@@ -2422,7 +2422,7 @@
         <v>160</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K33" s="4">
         <v>8.4</v>
@@ -2431,21 +2431,21 @@
         <v>444186909</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5">
         <v>30897</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F34" s="5">
         <v>42076</v>
@@ -2460,7 +2460,7 @@
         <v>240</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K34" s="4">
         <v>8.4</v>
@@ -2469,21 +2469,21 @@
         <v>406185755</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D35" s="5">
         <v>35519</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F35" s="5">
         <v>42089</v>
@@ -2498,7 +2498,7 @@
         <v>180</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K35" s="4">
         <v>6.8</v>
@@ -2507,21 +2507,21 @@
         <v>312192137</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D36" s="5">
         <v>31293</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F36" s="5">
         <v>42091</v>
@@ -2536,7 +2536,7 @@
         <v>180</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="K36" s="4">
         <v>8.1999999999999993</v>
@@ -2545,21 +2545,21 @@
         <v>238064280</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D37" s="5">
         <v>33098</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F37" s="5">
         <v>42095</v>
@@ -2574,7 +2574,7 @@
         <v>240</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K37" s="4">
         <v>7.4</v>
@@ -2583,21 +2583,21 @@
         <v>240401591</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D38" s="5">
         <v>35525</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F38" s="5">
         <v>42095</v>
@@ -2612,7 +2612,7 @@
         <v>160</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K38" s="4">
         <v>7.6</v>
@@ -2621,21 +2621,21 @@
         <v>323950809</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D39" s="5">
         <v>35547</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F39" s="5">
         <v>42117</v>
@@ -2650,7 +2650,7 @@
         <v>160</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K39" s="4">
         <v>8.1999999999999993</v>
@@ -2659,21 +2659,21 @@
         <v>328907235</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D40" s="5">
         <v>35548</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F40" s="5">
         <v>42118</v>
@@ -2688,7 +2688,7 @@
         <v>200</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K40" s="4">
         <v>6.6</v>
@@ -2697,21 +2697,21 @@
         <v>387865910</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D41" s="5">
         <v>35556</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F41" s="5">
         <v>42126</v>
@@ -2726,7 +2726,7 @@
         <v>200</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K41" s="4">
         <v>8.4</v>
@@ -2735,21 +2735,21 @@
         <v>324505817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D42" s="5">
         <v>30928</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F42" s="5">
         <v>42130</v>
@@ -2764,7 +2764,7 @@
         <v>200</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K42" s="4">
         <v>7.6</v>
@@ -2773,21 +2773,21 @@
         <v>423694168</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D43" s="5">
         <v>31484</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F43" s="5">
         <v>42154</v>
@@ -2802,7 +2802,7 @@
         <v>160</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K43" s="4">
         <v>9</v>
@@ -2811,21 +2811,21 @@
         <v>333213517</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D44" s="5">
         <v>35248</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F44" s="5">
         <v>42162</v>
@@ -2840,7 +2840,7 @@
         <v>200</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K44" s="4">
         <v>7.4</v>
@@ -2849,21 +2849,21 @@
         <v>437490730</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D45" s="5">
         <v>35217</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F45" s="5">
         <v>42193</v>
@@ -2878,7 +2878,7 @@
         <v>160</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K45" s="4">
         <v>8.1999999999999993</v>
@@ -2887,21 +2887,21 @@
         <v>434077537</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D46" s="5">
         <v>35630</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F46" s="5">
         <v>42200</v>
@@ -2916,7 +2916,7 @@
         <v>180</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K46" s="4">
         <v>8.8000000000000007</v>
@@ -2925,21 +2925,21 @@
         <v>327469512</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D47" s="5">
         <v>28591</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F47" s="5">
         <v>42223</v>
@@ -2954,7 +2954,7 @@
         <v>160</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K47" s="4">
         <v>8.8000000000000007</v>
@@ -2963,21 +2963,21 @@
         <v>420728427</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D48" s="5">
         <v>29224</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F48" s="5">
         <v>42259</v>
@@ -2992,7 +2992,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K48" s="4">
         <v>8.8000000000000007</v>
@@ -3001,21 +3001,21 @@
         <v>389951286</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D49" s="5">
         <v>34736</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F49" s="5">
         <v>42268</v>
@@ -3030,7 +3030,7 @@
         <v>160</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K49" s="4">
         <v>9.6</v>
@@ -3039,21 +3039,21 @@
         <v>382736209</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D50" s="5">
         <v>29780</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F50" s="5">
         <v>42283</v>
@@ -3068,7 +3068,7 @@
         <v>180</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K50" s="4">
         <v>7.2</v>
@@ -3077,7 +3077,7 @@
         <v>263057002</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3085,13 +3085,13 @@
         <v>87</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D51" s="5">
         <v>35718</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F51" s="5">
         <v>42288</v>
@@ -3106,7 +3106,7 @@
         <v>200</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="K51" s="4">
         <v>8.1999999999999993</v>
@@ -3115,21 +3115,21 @@
         <v>421296170</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D52" s="5">
         <v>31471</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F52" s="5">
         <v>42295</v>
@@ -3144,7 +3144,7 @@
         <v>200</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="K52" s="4">
         <v>8</v>
@@ -3153,21 +3153,21 @@
         <v>313756747</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D53" s="5">
         <v>33759</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F53" s="5">
         <v>42317</v>
@@ -3182,7 +3182,7 @@
         <v>200</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K53" s="4">
         <v>8</v>
@@ -3191,21 +3191,21 @@
         <v>424162817</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12">
       <c r="A54" s="3">
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D54" s="5">
         <v>34256</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F54" s="5">
         <v>42319</v>
@@ -3220,7 +3220,7 @@
         <v>200</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K54" s="4">
         <v>9.4</v>
@@ -3229,21 +3229,21 @@
         <v>279289928</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D55" s="5">
         <v>28875</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F55" s="5">
         <v>42341</v>
@@ -3258,7 +3258,7 @@
         <v>180</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K55" s="4">
         <v>8.8000000000000007</v>
@@ -3267,21 +3267,21 @@
         <v>305033867</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D56" s="5">
         <v>35772</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F56" s="5">
         <v>42342</v>
@@ -3296,7 +3296,7 @@
         <v>180</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K56" s="4">
         <v>8.4</v>
@@ -3305,21 +3305,21 @@
         <v>248814535</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12">
       <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D57" s="5">
         <v>35791</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F57" s="5">
         <v>42361</v>
@@ -3334,7 +3334,7 @@
         <v>160</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K57" s="4">
         <v>7.8</v>
@@ -3343,21 +3343,21 @@
         <v>359226294</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D58" s="5">
         <v>35799</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F58" s="5">
         <v>42369</v>
@@ -3372,7 +3372,7 @@
         <v>240</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K58" s="4">
         <v>8.1999999999999993</v>
@@ -3381,21 +3381,21 @@
         <v>321115023</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D59" s="5">
         <v>35821</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F59" s="5">
         <v>42391</v>
@@ -3410,7 +3410,7 @@
         <v>160</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K59" s="4">
         <v>6.8</v>
@@ -3419,21 +3419,21 @@
         <v>373971780</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D60" s="5">
         <v>35823</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F60" s="5">
         <v>42393</v>
@@ -3448,7 +3448,7 @@
         <v>240</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K60" s="4">
         <v>7.4</v>
@@ -3457,21 +3457,21 @@
         <v>294218503</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12">
       <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D61" s="5">
         <v>35838</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F61" s="5">
         <v>42408</v>
@@ -3486,7 +3486,7 @@
         <v>240</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K61" s="4">
         <v>7</v>
@@ -3495,21 +3495,21 @@
         <v>324943244</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12">
       <c r="A62" s="3">
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D62" s="5">
         <v>29311</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F62" s="5">
         <v>42416</v>
@@ -3524,7 +3524,7 @@
         <v>240</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K62" s="4">
         <v>7.4</v>
@@ -3533,21 +3533,21 @@
         <v>417620476</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12">
       <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D63" s="5">
         <v>32548</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F63" s="5">
         <v>42422</v>
@@ -3562,7 +3562,7 @@
         <v>160</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K63" s="4">
         <v>7.2</v>
@@ -3571,21 +3571,21 @@
         <v>348526910</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12">
       <c r="A64" s="3">
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D64" s="5">
         <v>30563</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F64" s="5">
         <v>42426</v>
@@ -3600,7 +3600,7 @@
         <v>160</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K64" s="4">
         <v>7.8</v>
@@ -3609,21 +3609,21 @@
         <v>316797174</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12">
       <c r="A65" s="3">
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D65" s="5">
         <v>35868</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F65" s="5">
         <v>42438</v>
@@ -3638,7 +3638,7 @@
         <v>160</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K65" s="4">
         <v>8.8000000000000007</v>
@@ -3647,21 +3647,21 @@
         <v>345651387</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12">
       <c r="A66" s="3">
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D66" s="5">
         <v>28451</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F66" s="5">
         <v>42509</v>
@@ -3676,7 +3676,7 @@
         <v>240</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K66" s="4">
         <v>8.4</v>
@@ -3685,21 +3685,21 @@
         <v>312425953</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12">
       <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D67" s="5">
         <v>34162</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F67" s="5">
         <v>42533</v>
@@ -3714,7 +3714,7 @@
         <v>200</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="K67" s="4">
         <v>9</v>
@@ -3723,21 +3723,21 @@
         <v>353324679</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" s="3">
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D68" s="5">
         <v>35970</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F68" s="5">
         <v>42540</v>
@@ -3752,7 +3752,7 @@
         <v>200</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K68" s="4">
         <v>8</v>
@@ -3761,21 +3761,21 @@
         <v>421047487</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D69" s="5">
         <v>28834</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F69" s="5">
         <v>42579</v>
@@ -3790,7 +3790,7 @@
         <v>180</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K69" s="4">
         <v>9.1999999999999993</v>
@@ -3799,21 +3799,21 @@
         <v>371444865</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D70" s="5">
         <v>35391</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F70" s="5">
         <v>42596</v>
@@ -3828,7 +3828,7 @@
         <v>240</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K70" s="4">
         <v>8.8000000000000007</v>
@@ -3837,21 +3837,21 @@
         <v>260359750</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" s="3">
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D71" s="5">
         <v>32753</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F71" s="5">
         <v>42596</v>
@@ -3866,7 +3866,7 @@
         <v>240</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K71" s="4">
         <v>7.6</v>
@@ -3875,21 +3875,21 @@
         <v>260017563</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" s="3">
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D72" s="5">
         <v>29153</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F72" s="5">
         <v>42598</v>
@@ -3904,7 +3904,7 @@
         <v>200</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="K72" s="4">
         <v>9</v>
@@ -3913,21 +3913,21 @@
         <v>427693384</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12">
       <c r="A73" s="3">
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D73" s="5">
         <v>36053</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F73" s="5">
         <v>42623</v>
@@ -3942,7 +3942,7 @@
         <v>200</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K73" s="4">
         <v>9.1999999999999993</v>
@@ -3951,21 +3951,21 @@
         <v>342016455</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12">
       <c r="A74" s="3">
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D74" s="5">
         <v>36060</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F74" s="5">
         <v>42630</v>
@@ -3980,7 +3980,7 @@
         <v>200</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="K74" s="4">
         <v>9</v>
@@ -3989,21 +3989,21 @@
         <v>443657745</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12">
       <c r="A75" s="3">
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D75" s="5">
         <v>36064</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F75" s="5">
         <v>42634</v>
@@ -4018,7 +4018,7 @@
         <v>160</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K75" s="4">
         <v>8.4</v>
@@ -4027,21 +4027,21 @@
         <v>260016998</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12">
       <c r="A76" s="3">
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D76" s="5">
         <v>36065</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F76" s="5">
         <v>42635</v>
@@ -4056,7 +4056,7 @@
         <v>180</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K76" s="4">
         <v>8.6</v>
@@ -4065,21 +4065,21 @@
         <v>243208433</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12">
       <c r="A77" s="3">
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D77" s="5">
         <v>28328</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F77" s="5">
         <v>42693</v>
@@ -4094,7 +4094,7 @@
         <v>200</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K77" s="4">
         <v>8</v>
@@ -4103,21 +4103,21 @@
         <v>258313738</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12">
       <c r="A78" s="3">
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D78" s="5">
         <v>36137</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F78" s="5">
         <v>42707</v>
@@ -4132,7 +4132,7 @@
         <v>240</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K78" s="4">
         <v>9</v>
@@ -4141,21 +4141,21 @@
         <v>249640473</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12">
       <c r="A79" s="3">
         <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D79" s="5">
         <v>34290</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F79" s="5">
         <v>42739</v>
@@ -4170,7 +4170,7 @@
         <v>240</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K79" s="4">
         <v>9.6</v>
@@ -4179,21 +4179,21 @@
         <v>286088784</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12">
       <c r="A80" s="3">
         <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D80" s="5">
         <v>33795</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F80" s="5">
         <v>42745</v>
@@ -4208,7 +4208,7 @@
         <v>200</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K80" s="4">
         <v>8</v>
@@ -4217,21 +4217,21 @@
         <v>412208244</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12">
       <c r="A81" s="3">
         <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D81" s="5">
         <v>31013</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F81" s="5">
         <v>42746</v>
@@ -4246,7 +4246,7 @@
         <v>200</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K81" s="4">
         <v>8.8000000000000007</v>
@@ -4255,21 +4255,21 @@
         <v>254659299</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12">
       <c r="A82" s="3">
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D82" s="5">
         <v>36203</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F82" s="5">
         <v>42773</v>
@@ -4284,7 +4284,7 @@
         <v>180</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K82" s="4">
         <v>8.6</v>
@@ -4293,21 +4293,21 @@
         <v>403183700</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12">
       <c r="A83" s="3">
         <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D83" s="5">
         <v>33686</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F83" s="5">
         <v>42778</v>
@@ -4322,7 +4322,7 @@
         <v>160</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K83" s="4">
         <v>7.2</v>
@@ -4331,21 +4331,21 @@
         <v>274282827</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12">
       <c r="A84" s="3">
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D84" s="5">
         <v>36209</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F84" s="5">
         <v>42779</v>
@@ -4360,7 +4360,7 @@
         <v>180</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K84" s="4">
         <v>9</v>
@@ -4369,21 +4369,21 @@
         <v>253299338</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12">
       <c r="A85" s="3">
         <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D85" s="5">
         <v>36209</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F85" s="5">
         <v>42779</v>
@@ -4398,7 +4398,7 @@
         <v>240</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="K85" s="4">
         <v>7.8</v>
@@ -4407,21 +4407,21 @@
         <v>352596173</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12">
       <c r="A86" s="3">
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D86" s="5">
         <v>34150</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F86" s="5">
         <v>42790</v>
@@ -4436,7 +4436,7 @@
         <v>160</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K86" s="4">
         <v>8.8000000000000007</v>
@@ -4445,21 +4445,21 @@
         <v>438415480</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12">
       <c r="A87" s="3">
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D87" s="5">
         <v>28441</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F87" s="5">
         <v>42794</v>
@@ -4474,7 +4474,7 @@
         <v>200</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K87" s="4">
         <v>6.4</v>
@@ -4483,21 +4483,21 @@
         <v>316067122</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12">
       <c r="A88" s="3">
         <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D88" s="5">
         <v>35828</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F88" s="5">
         <v>42799</v>
@@ -4512,7 +4512,7 @@
         <v>160</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K88" s="4">
         <v>6.8</v>
@@ -4521,21 +4521,21 @@
         <v>295832280</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12">
       <c r="A89" s="3">
         <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D89" s="5">
         <v>32449</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F89" s="5">
         <v>42803</v>
@@ -4550,7 +4550,7 @@
         <v>240</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="K89" s="4">
         <v>7.4</v>
@@ -4559,21 +4559,21 @@
         <v>285150875</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12">
       <c r="A90" s="3">
         <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D90" s="5">
         <v>33311</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F90" s="5">
         <v>42806</v>
@@ -4588,7 +4588,7 @@
         <v>240</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="K90" s="4">
         <v>8.6</v>
@@ -4597,21 +4597,21 @@
         <v>403336477</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12">
       <c r="A91" s="3">
         <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D91" s="5">
         <v>36245</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F91" s="5">
         <v>42815</v>
@@ -4626,7 +4626,7 @@
         <v>200</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="K91" s="4">
         <v>6</v>
@@ -4635,21 +4635,21 @@
         <v>401665565</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12">
       <c r="A92" s="3">
         <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D92" s="5">
         <v>36278</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F92" s="5">
         <v>42848</v>
@@ -4664,7 +4664,7 @@
         <v>200</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K92" s="4">
         <v>8.4</v>
@@ -4673,21 +4673,21 @@
         <v>236594228</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12">
       <c r="A93" s="3">
         <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D93" s="5">
         <v>36284</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F93" s="5">
         <v>42854</v>
@@ -4702,7 +4702,7 @@
         <v>200</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K93" s="4">
         <v>6.2</v>
@@ -4711,21 +4711,21 @@
         <v>251203088</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12">
       <c r="A94" s="3">
         <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D94" s="5">
         <v>36286</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F94" s="5">
         <v>42856</v>
@@ -4740,7 +4740,7 @@
         <v>240</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K94" s="4">
         <v>9.6</v>
@@ -4749,21 +4749,21 @@
         <v>359897168</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12">
       <c r="A95" s="3">
         <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D95" s="5">
         <v>36289</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F95" s="5">
         <v>42859</v>
@@ -4778,7 +4778,7 @@
         <v>180</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K95" s="4">
         <v>9</v>
@@ -4787,21 +4787,21 @@
         <v>436090071</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12">
       <c r="A96" s="3">
         <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D96" s="5">
         <v>35493</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F96" s="5">
         <v>42878</v>
@@ -4816,7 +4816,7 @@
         <v>180</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K96" s="4">
         <v>9.8000000000000007</v>
@@ -4825,21 +4825,21 @@
         <v>246414537</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12">
       <c r="A97" s="3">
         <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D97" s="5">
         <v>33626</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F97" s="5">
         <v>42881</v>
@@ -4854,7 +4854,7 @@
         <v>160</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K97" s="4">
         <v>8.1999999999999993</v>
@@ -4863,21 +4863,21 @@
         <v>222276098</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12">
       <c r="A98" s="3">
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D98" s="5">
         <v>32142</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F98" s="5">
         <v>42886</v>
@@ -4892,7 +4892,7 @@
         <v>180</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K98" s="4">
         <v>7.8</v>
@@ -4901,21 +4901,21 @@
         <v>398127089</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12">
       <c r="A99" s="3">
         <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D99" s="5">
         <v>32280</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F99" s="5">
         <v>42894</v>
@@ -4930,7 +4930,7 @@
         <v>160</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K99" s="4">
         <v>9.6</v>
@@ -4939,21 +4939,21 @@
         <v>285694725</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12">
       <c r="A100" s="3">
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D100" s="5">
         <v>31812</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F100" s="5">
         <v>42902</v>
@@ -4968,7 +4968,7 @@
         <v>180</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K100" s="4">
         <v>8.6</v>
@@ -4977,21 +4977,21 @@
         <v>427753476</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12">
       <c r="A101" s="3">
         <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D101" s="5">
         <v>30229</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F101" s="5">
         <v>42903</v>
@@ -5006,7 +5006,7 @@
         <v>160</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K101" s="4">
         <v>9.6</v>
@@ -5015,21 +5015,21 @@
         <v>408734345</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12">
       <c r="A102" s="3">
         <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D102" s="5">
         <v>33719</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F102" s="5">
         <v>42905</v>
@@ -5044,7 +5044,7 @@
         <v>240</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K102" s="4">
         <v>6.8</v>
@@ -5053,21 +5053,21 @@
         <v>233119303</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12">
       <c r="A103" s="3">
         <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D103" s="5">
         <v>30086</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F103" s="5">
         <v>42917</v>
@@ -5082,7 +5082,7 @@
         <v>180</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="K103" s="4">
         <v>8.1999999999999993</v>
@@ -5091,21 +5091,21 @@
         <v>443345901</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12">
       <c r="A104" s="3">
         <v>101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D104" s="5">
         <v>34749</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F104" s="5">
         <v>42921</v>
@@ -5120,7 +5120,7 @@
         <v>160</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K104" s="4">
         <v>8.6</v>
@@ -5129,21 +5129,21 @@
         <v>309804205</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12">
       <c r="A105" s="3">
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D105" s="5">
         <v>32671</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F105" s="5">
         <v>42943</v>
@@ -5158,7 +5158,7 @@
         <v>200</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K105" s="4">
         <v>8</v>
@@ -5167,21 +5167,21 @@
         <v>243596491</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12">
       <c r="A106" s="3">
         <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D106" s="5">
         <v>30371</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F106" s="5">
         <v>42953</v>
@@ -5196,7 +5196,7 @@
         <v>160</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K106" s="4">
         <v>8.8000000000000007</v>
@@ -5205,21 +5205,21 @@
         <v>370839154</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12">
       <c r="A107" s="3">
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D107" s="5">
         <v>35289</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F107" s="5">
         <v>42965</v>
@@ -5234,7 +5234,7 @@
         <v>200</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="K107" s="4">
         <v>8.4</v>
@@ -5243,21 +5243,21 @@
         <v>268457011</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12">
       <c r="A108" s="3">
         <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D108" s="5">
         <v>30857</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F108" s="5">
         <v>42970</v>
@@ -5272,7 +5272,7 @@
         <v>160</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K108" s="4">
         <v>8.8000000000000007</v>
@@ -5281,21 +5281,21 @@
         <v>334784193</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12">
       <c r="A109" s="3">
         <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D109" s="5">
         <v>36363</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F109" s="5">
         <v>42971</v>
@@ -5310,7 +5310,7 @@
         <v>200</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="K109" s="4">
         <v>9</v>
@@ -5319,21 +5319,21 @@
         <v>382568398</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12">
       <c r="A110" s="3">
         <v>107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D110" s="5">
         <v>33611</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F110" s="5">
         <v>42986</v>
@@ -5348,7 +5348,7 @@
         <v>200</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K110" s="4">
         <v>7.2</v>
@@ -5357,21 +5357,21 @@
         <v>373840956</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12">
       <c r="A111" s="3">
         <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D111" s="5">
         <v>36420</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F111" s="5">
         <v>42990</v>
@@ -5386,7 +5386,7 @@
         <v>160</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K111" s="4">
         <v>8.1999999999999993</v>
@@ -5395,21 +5395,21 @@
         <v>257033726</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12">
       <c r="A112" s="3">
         <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D112" s="5">
         <v>31654</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F112" s="5">
         <v>43008</v>
@@ -5424,7 +5424,7 @@
         <v>200</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K112" s="4">
         <v>7.8</v>
@@ -5433,21 +5433,21 @@
         <v>383295375</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12">
       <c r="A113" s="3">
         <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D113" s="5">
         <v>31084</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F113" s="5">
         <v>43012</v>
@@ -5462,7 +5462,7 @@
         <v>180</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K113" s="4">
         <v>8.6</v>
@@ -5471,21 +5471,21 @@
         <v>441696237</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12">
       <c r="A114" s="3">
         <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D114" s="5">
         <v>35376</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F114" s="5">
         <v>43038</v>
@@ -5500,7 +5500,7 @@
         <v>200</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K114" s="4">
         <v>8.4</v>
@@ -5509,21 +5509,21 @@
         <v>224980314</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12">
       <c r="A115" s="3">
         <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D115" s="5">
         <v>36472</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F115" s="5">
         <v>43042</v>
@@ -5538,7 +5538,7 @@
         <v>160</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K115" s="4">
         <v>8.8000000000000007</v>
@@ -5547,21 +5547,21 @@
         <v>279071654</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12">
       <c r="A116" s="3">
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D116" s="5">
         <v>36504</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F116" s="5">
         <v>43074</v>
@@ -5576,7 +5576,7 @@
         <v>160</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K116" s="4">
         <v>8.8000000000000007</v>
@@ -5585,21 +5585,21 @@
         <v>289699666</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12">
       <c r="A117" s="3">
         <v>114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D117" s="5">
         <v>36512</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F117" s="5">
         <v>43082</v>
@@ -5614,7 +5614,7 @@
         <v>200</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K117" s="4">
         <v>8.4</v>
@@ -5623,21 +5623,21 @@
         <v>335782530</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12">
       <c r="A118" s="3">
         <v>115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D118" s="5">
         <v>31579</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F118" s="5">
         <v>43083</v>
@@ -5652,7 +5652,7 @@
         <v>240</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K118" s="4">
         <v>6.8</v>
@@ -5661,21 +5661,21 @@
         <v>265065213</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12">
       <c r="A119" s="3">
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D119" s="5">
         <v>36544</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F119" s="5">
         <v>43114</v>
@@ -5690,7 +5690,7 @@
         <v>160</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K119" s="4">
         <v>7.4</v>
@@ -5699,21 +5699,21 @@
         <v>253193803</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12">
       <c r="A120" s="3">
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D120" s="5">
         <v>33741</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F120" s="5">
         <v>43134</v>
@@ -5728,7 +5728,7 @@
         <v>180</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K120" s="4">
         <v>8.8000000000000007</v>
@@ -5737,21 +5737,21 @@
         <v>343433537</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12">
       <c r="A121" s="3">
         <v>118</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D121" s="5">
         <v>36566</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F121" s="5">
         <v>43136</v>
@@ -5766,7 +5766,7 @@
         <v>180</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K121" s="4">
         <v>8.6</v>
@@ -5775,21 +5775,21 @@
         <v>238025731</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12">
       <c r="A122" s="3">
         <v>119</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D122" s="5">
         <v>36579</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F122" s="5">
         <v>43149</v>
@@ -5804,7 +5804,7 @@
         <v>180</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K122" s="4">
         <v>8.6</v>
@@ -5813,21 +5813,21 @@
         <v>439767633</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12">
       <c r="A123" s="3">
         <v>120</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D123" s="5">
         <v>30926</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F123" s="5">
         <v>43153</v>
@@ -5842,7 +5842,7 @@
         <v>200</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K123" s="4">
         <v>7.2</v>
@@ -5851,21 +5851,21 @@
         <v>294049565</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12">
       <c r="A124" s="3">
         <v>121</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D124" s="5">
         <v>33258</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F124" s="5">
         <v>43200</v>
@@ -5880,7 +5880,7 @@
         <v>180</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K124" s="4">
         <v>8.8000000000000007</v>
@@ -5889,21 +5889,21 @@
         <v>276381366</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12">
       <c r="A125" s="3">
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D125" s="5">
         <v>36363</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F125" s="5">
         <v>43203</v>
@@ -5918,7 +5918,7 @@
         <v>200</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K125" s="4">
         <v>9.6</v>
@@ -5927,21 +5927,21 @@
         <v>345760279</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12">
       <c r="A126" s="3">
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D126" s="5">
         <v>34087</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F126" s="5">
         <v>43208</v>
@@ -5956,7 +5956,7 @@
         <v>200</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K126" s="4">
         <v>9.6</v>
@@ -5965,21 +5965,21 @@
         <v>274044429</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12">
       <c r="A127" s="3">
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D127" s="5">
         <v>34184</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F127" s="5">
         <v>43216</v>
@@ -5994,7 +5994,7 @@
         <v>180</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K127" s="4">
         <v>7.8</v>
@@ -6003,21 +6003,21 @@
         <v>341235235</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12">
       <c r="A128" s="3">
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D128" s="5">
         <v>34612</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F128" s="5">
         <v>43217</v>
@@ -6032,7 +6032,7 @@
         <v>160</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K128" s="4">
         <v>7.6</v>
@@ -6041,21 +6041,21 @@
         <v>354289270</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12">
       <c r="A129" s="3">
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D129" s="5">
         <v>32932</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F129" s="5">
         <v>43232</v>
@@ -6070,7 +6070,7 @@
         <v>160</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K129" s="4">
         <v>6.4</v>
@@ -6079,21 +6079,21 @@
         <v>397351267</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12">
       <c r="A130" s="3">
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D130" s="5">
         <v>36667</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F130" s="5">
         <v>43237</v>
@@ -6108,7 +6108,7 @@
         <v>180</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K130" s="4">
         <v>8.6</v>
@@ -6117,21 +6117,21 @@
         <v>408541087</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12">
       <c r="A131" s="3">
         <v>128</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D131" s="5">
         <v>36415</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F131" s="5">
         <v>43250</v>
@@ -6146,7 +6146,7 @@
         <v>160</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K131" s="4">
         <v>8.8000000000000007</v>
@@ -6155,21 +6155,21 @@
         <v>319310400</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12">
       <c r="A132" s="3">
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D132" s="5">
         <v>30544</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F132" s="5">
         <v>43303</v>
@@ -6184,7 +6184,7 @@
         <v>180</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K132" s="4">
         <v>8.1999999999999993</v>
@@ -6193,21 +6193,21 @@
         <v>334560518</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12">
       <c r="A133" s="3">
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D133" s="5">
         <v>36751</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F133" s="5">
         <v>43321</v>
@@ -6222,7 +6222,7 @@
         <v>160</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K133" s="4">
         <v>8.4</v>
@@ -6231,21 +6231,21 @@
         <v>436268374</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12">
       <c r="A134" s="3">
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D134" s="5">
         <v>36774</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F134" s="5">
         <v>43344</v>
@@ -6260,7 +6260,7 @@
         <v>240</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K134" s="4">
         <v>8.4</v>
@@ -6269,21 +6269,21 @@
         <v>437911169</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12">
       <c r="A135" s="3">
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D135" s="5">
         <v>36775</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F135" s="5">
         <v>43345</v>
@@ -6298,7 +6298,7 @@
         <v>240</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K135" s="4">
         <v>8.1999999999999993</v>
@@ -6307,21 +6307,21 @@
         <v>232804933</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12">
       <c r="A136" s="3">
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D136" s="5">
         <v>32033</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F136" s="5">
         <v>43346</v>
@@ -6336,7 +6336,7 @@
         <v>240</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K136" s="4">
         <v>6</v>
@@ -6345,21 +6345,21 @@
         <v>434281193</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12">
       <c r="A137" s="3">
         <v>134</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D137" s="5">
         <v>36782</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F137" s="5">
         <v>43352</v>
@@ -6374,7 +6374,7 @@
         <v>180</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K137" s="4">
         <v>8.6</v>
@@ -6383,21 +6383,21 @@
         <v>297756738</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12">
       <c r="A138" s="3">
         <v>135</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D138" s="5">
         <v>36783</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F138" s="5">
         <v>43353</v>
@@ -6412,7 +6412,7 @@
         <v>200</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K138" s="4">
         <v>6.4</v>
@@ -6421,21 +6421,21 @@
         <v>314342836</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12">
       <c r="A139" s="3">
         <v>136</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D139" s="5">
         <v>28960</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F139" s="5">
         <v>43363</v>
@@ -6450,7 +6450,7 @@
         <v>200</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K139" s="4">
         <v>8.4</v>
@@ -6459,21 +6459,21 @@
         <v>340802515</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12">
       <c r="A140" s="3">
         <v>137</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D140" s="5">
         <v>36795</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F140" s="5">
         <v>43365</v>
@@ -6488,7 +6488,7 @@
         <v>160</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K140" s="4">
         <v>5.8</v>
@@ -6497,21 +6497,21 @@
         <v>378814070</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12">
       <c r="A141" s="3">
         <v>138</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D141" s="5">
         <v>36347</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F141" s="5">
         <v>43388</v>
@@ -6526,7 +6526,7 @@
         <v>160</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K141" s="4">
         <v>7.6</v>
@@ -6535,21 +6535,21 @@
         <v>264703864</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12">
       <c r="A142" s="3">
         <v>139</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D142" s="5">
         <v>30574</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F142" s="5">
         <v>43408</v>
@@ -6564,7 +6564,7 @@
         <v>200</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K142" s="4">
         <v>7.4</v>
@@ -6573,21 +6573,21 @@
         <v>313573338</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12">
       <c r="A143" s="3">
         <v>140</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D143" s="5">
         <v>36121</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F143" s="5">
         <v>43416</v>
@@ -6602,7 +6602,7 @@
         <v>180</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K143" s="4">
         <v>7.8</v>
@@ -6611,21 +6611,21 @@
         <v>414578286</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12">
       <c r="A144" s="3">
         <v>141</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D144" s="5">
         <v>36859</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F144" s="5">
         <v>43429</v>
@@ -6640,7 +6640,7 @@
         <v>180</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K144" s="4">
         <v>8.4</v>
@@ -6649,21 +6649,21 @@
         <v>342652797</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12">
       <c r="A145" s="3">
         <v>142</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D145" s="5">
         <v>30928</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F145" s="5">
         <v>43457</v>
@@ -6678,7 +6678,7 @@
         <v>180</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K145" s="4">
         <v>7.2</v>
@@ -6687,21 +6687,21 @@
         <v>269819002</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12">
       <c r="A146" s="3">
         <v>143</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D146" s="5">
         <v>34061</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F146" s="5">
         <v>43461</v>
@@ -6716,7 +6716,7 @@
         <v>160</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K146" s="4">
         <v>8.1999999999999993</v>
@@ -6725,21 +6725,21 @@
         <v>314750814</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12">
       <c r="A147" s="3">
         <v>144</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D147" s="5">
         <v>35131</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F147" s="5">
         <v>43476</v>
@@ -6754,7 +6754,7 @@
         <v>240</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K147" s="4">
         <v>9</v>
@@ -6763,21 +6763,21 @@
         <v>433348570</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12">
       <c r="A148" s="3">
         <v>145</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D148" s="5">
         <v>36933</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F148" s="5">
         <v>43503</v>
@@ -6792,7 +6792,7 @@
         <v>160</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K148" s="4">
         <v>8.8000000000000007</v>
@@ -6801,21 +6801,21 @@
         <v>255782645</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12">
       <c r="A149" s="3">
         <v>146</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D149" s="5">
         <v>31275</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F149" s="5">
         <v>43510</v>
@@ -6830,7 +6830,7 @@
         <v>200</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K149" s="4">
         <v>8.4</v>
@@ -6839,21 +6839,21 @@
         <v>246258443</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12">
       <c r="A150" s="3">
         <v>147</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D150" s="5">
         <v>35403</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F150" s="5">
         <v>43530</v>
@@ -6868,7 +6868,7 @@
         <v>180</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K150" s="4">
         <v>8.4</v>
@@ -6877,21 +6877,21 @@
         <v>331143179</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12">
       <c r="A151" s="3">
         <v>148</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D151" s="5">
         <v>36975</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F151" s="5">
         <v>43545</v>
@@ -6906,7 +6906,7 @@
         <v>200</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K151" s="4">
         <v>7.8</v>
@@ -6915,21 +6915,21 @@
         <v>293263748</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12">
       <c r="A152" s="3">
         <v>149</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D152" s="5">
         <v>34845</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F152" s="5">
         <v>43554</v>
@@ -6944,7 +6944,7 @@
         <v>180</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K152" s="4">
         <v>7.4</v>
@@ -6953,21 +6953,21 @@
         <v>320878083</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12">
       <c r="A153" s="3">
         <v>150</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D153" s="5">
         <v>36994</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F153" s="5">
         <v>43564</v>
@@ -6982,7 +6982,7 @@
         <v>200</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K153" s="4">
         <v>8</v>
@@ -6991,21 +6991,21 @@
         <v>389929526</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12">
       <c r="A154" s="3">
         <v>151</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D154" s="5">
         <v>37007</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F154" s="5">
         <v>43577</v>
@@ -7020,7 +7020,7 @@
         <v>160</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K154" s="4">
         <v>9.6</v>
@@ -7029,21 +7029,21 @@
         <v>256711092</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12">
       <c r="A155" s="3">
         <v>152</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D155" s="5">
         <v>31880</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F155" s="5">
         <v>43594</v>
@@ -7058,7 +7058,7 @@
         <v>240</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K155" s="4">
         <v>8</v>
@@ -7067,21 +7067,21 @@
         <v>341983278</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12">
       <c r="A156" s="3">
         <v>153</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D156" s="5">
         <v>37044</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F156" s="5">
         <v>43614</v>
@@ -7096,7 +7096,7 @@
         <v>180</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K156" s="4">
         <v>8</v>
@@ -7105,21 +7105,21 @@
         <v>267583555</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12">
       <c r="A157" s="3">
         <v>154</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D157" s="5">
         <v>37044</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F157" s="5">
         <v>43614</v>
@@ -7134,7 +7134,7 @@
         <v>180</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K157" s="4">
         <v>9.1999999999999993</v>
@@ -7143,21 +7143,21 @@
         <v>392089678</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12">
       <c r="A158" s="3">
         <v>155</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D158" s="5">
         <v>37047</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F158" s="5">
         <v>43617</v>
@@ -7172,7 +7172,7 @@
         <v>200</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K158" s="4">
         <v>8.6</v>
@@ -7181,21 +7181,21 @@
         <v>294498175</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12">
       <c r="A159" s="3">
         <v>156</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D159" s="5">
         <v>37053</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F159" s="5">
         <v>43623</v>
@@ -7210,7 +7210,7 @@
         <v>200</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K159" s="4">
         <v>8.4</v>
@@ -7219,21 +7219,21 @@
         <v>389326515</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12">
       <c r="A160" s="3">
         <v>157</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D160" s="5">
         <v>34991</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F160" s="5">
         <v>43624</v>
@@ -7248,7 +7248,7 @@
         <v>240</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K160" s="4">
         <v>8.8000000000000007</v>
@@ -7257,21 +7257,21 @@
         <v>414062969</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12">
       <c r="A161" s="3">
         <v>158</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D161" s="5">
         <v>29776</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F161" s="5">
         <v>43646</v>
@@ -7286,7 +7286,7 @@
         <v>160</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K161" s="4">
         <v>9.4</v>
@@ -7295,21 +7295,21 @@
         <v>260072615</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12">
       <c r="A162" s="3">
         <v>159</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D162" s="5">
         <v>37094</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F162" s="5">
         <v>43664</v>
@@ -7324,7 +7324,7 @@
         <v>240</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K162" s="4">
         <v>7.8</v>
@@ -7333,21 +7333,21 @@
         <v>387430600</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12">
       <c r="A163" s="3">
         <v>160</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D163" s="5">
         <v>33166</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F163" s="5">
         <v>43667</v>
@@ -7362,7 +7362,7 @@
         <v>240</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="K163" s="4">
         <v>7.2</v>
@@ -7371,21 +7371,21 @@
         <v>366666028</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12">
       <c r="A164" s="3">
         <v>161</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D164" s="5">
         <v>33124</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F164" s="5">
         <v>43682</v>
@@ -7400,7 +7400,7 @@
         <v>200</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K164" s="4">
         <v>9.1999999999999993</v>
@@ -7409,21 +7409,21 @@
         <v>294063078</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12">
       <c r="A165" s="3">
         <v>162</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D165" s="5">
         <v>29393</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F165" s="5">
         <v>43689</v>
@@ -7438,7 +7438,7 @@
         <v>160</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K165" s="4">
         <v>9.4</v>
@@ -7447,21 +7447,21 @@
         <v>400091927</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12">
       <c r="A166" s="3">
         <v>163</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D166" s="5">
         <v>37130</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F166" s="5">
         <v>43700</v>
@@ -7476,7 +7476,7 @@
         <v>240</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K166" s="4">
         <v>6.8</v>
@@ -7485,21 +7485,21 @@
         <v>244741821</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12">
       <c r="A167" s="3">
         <v>164</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D167" s="5">
         <v>30235</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F167" s="5">
         <v>43729</v>
@@ -7514,7 +7514,7 @@
         <v>200</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K167" s="4">
         <v>8.6</v>
@@ -7523,21 +7523,21 @@
         <v>344669619</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12">
       <c r="A168" s="3">
         <v>165</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D168" s="5">
         <v>37169</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F168" s="5">
         <v>43739</v>
@@ -7552,7 +7552,7 @@
         <v>160</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K168" s="4">
         <v>7.6</v>
@@ -7561,21 +7561,21 @@
         <v>369856799</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12">
       <c r="A169" s="3">
         <v>166</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D169" s="5">
         <v>37191</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F169" s="5">
         <v>43761</v>
@@ -7590,7 +7590,7 @@
         <v>240</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K169" s="4">
         <v>9</v>
@@ -7599,21 +7599,21 @@
         <v>363101939</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12">
       <c r="A170" s="3">
         <v>167</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D170" s="5">
         <v>37215</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F170" s="5">
         <v>43785</v>
@@ -7628,7 +7628,7 @@
         <v>240</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K170" s="4">
         <v>9.1999999999999993</v>
@@ -7637,21 +7637,21 @@
         <v>321297705</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12">
       <c r="A171" s="3">
         <v>168</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D171" s="5">
         <v>37227</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F171" s="5">
         <v>43797</v>
@@ -7666,7 +7666,7 @@
         <v>160</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K171" s="4">
         <v>5.8</v>
@@ -7675,21 +7675,21 @@
         <v>354980490</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12">
       <c r="A172" s="3">
         <v>169</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D172" s="5">
         <v>35101</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F172" s="5">
         <v>43815</v>
@@ -7704,7 +7704,7 @@
         <v>180</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K172" s="4">
         <v>8.8000000000000007</v>
@@ -7713,21 +7713,21 @@
         <v>423229430</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12">
       <c r="A173" s="3">
         <v>170</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D173" s="5">
         <v>35153</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F173" s="5">
         <v>43823</v>
@@ -7742,7 +7742,7 @@
         <v>200</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K173" s="4">
         <v>8.4</v>
@@ -7751,21 +7751,21 @@
         <v>389051658</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12">
       <c r="A174" s="3">
         <v>171</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D174" s="5">
         <v>35246</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F174" s="5">
         <v>43847</v>
@@ -7780,7 +7780,7 @@
         <v>200</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K174" s="4">
         <v>9.8000000000000007</v>
@@ -7789,21 +7789,21 @@
         <v>407483760</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12">
       <c r="A175" s="3">
         <v>172</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D175" s="5">
         <v>37278</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F175" s="5">
         <v>43848</v>
@@ -7818,7 +7818,7 @@
         <v>180</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K175" s="4">
         <v>7.2</v>
@@ -7827,21 +7827,21 @@
         <v>418771357</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12">
       <c r="A176" s="3">
         <v>173</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D176" s="5">
         <v>37283</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F176" s="5">
         <v>43853</v>
@@ -7856,7 +7856,7 @@
         <v>180</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K176" s="4">
         <v>8.1999999999999993</v>
@@ -7865,21 +7865,21 @@
         <v>341471156</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12">
       <c r="A177" s="3">
         <v>174</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D177" s="5">
         <v>36243</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F177" s="5">
         <v>43857</v>
@@ -7894,7 +7894,7 @@
         <v>200</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="K177" s="4">
         <v>9.1999999999999993</v>
@@ -7903,21 +7903,21 @@
         <v>314427433</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12">
       <c r="A178" s="3">
         <v>175</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D178" s="5">
         <v>31579</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F178" s="5">
         <v>43860</v>
@@ -7932,7 +7932,7 @@
         <v>200</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K178" s="4">
         <v>8</v>
@@ -7941,21 +7941,21 @@
         <v>382788358</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12">
       <c r="A179" s="3">
         <v>176</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D179" s="5">
         <v>37295</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F179" s="5">
         <v>43865</v>
@@ -7970,7 +7970,7 @@
         <v>240</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K179" s="4">
         <v>7</v>
@@ -7979,21 +7979,21 @@
         <v>356858046</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12">
       <c r="A180" s="3">
         <v>177</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D180" s="5">
         <v>34415</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F180" s="5">
         <v>43868</v>
@@ -8008,7 +8008,7 @@
         <v>180</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K180" s="4">
         <v>9</v>
@@ -8017,21 +8017,21 @@
         <v>387891291</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12">
       <c r="A181" s="3">
         <v>178</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D181" s="5">
         <v>33340</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F181" s="5">
         <v>43894</v>
@@ -8046,7 +8046,7 @@
         <v>240</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K181" s="4">
         <v>8.4</v>
@@ -8055,21 +8055,21 @@
         <v>315219199</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12">
       <c r="A182" s="3">
         <v>179</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D182" s="5">
         <v>36433</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F182" s="5">
         <v>43896</v>
@@ -8084,7 +8084,7 @@
         <v>240</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K182" s="4">
         <v>9.1999999999999993</v>
@@ -8093,21 +8093,21 @@
         <v>293725570</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12">
       <c r="A183" s="3">
         <v>180</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D183" s="5">
         <v>37335</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F183" s="5">
         <v>43905</v>
@@ -8122,7 +8122,7 @@
         <v>200</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K183" s="4">
         <v>8</v>
@@ -8131,21 +8131,21 @@
         <v>337855062</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12">
       <c r="A184" s="3">
         <v>181</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D184" s="5">
         <v>37350</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F184" s="5">
         <v>43920</v>
@@ -8160,7 +8160,7 @@
         <v>240</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="K184" s="4">
         <v>8.4</v>
@@ -8169,21 +8169,21 @@
         <v>298111689</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12">
       <c r="A185" s="3">
         <v>182</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D185" s="5">
         <v>37360</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F185" s="5">
         <v>43930</v>
@@ -8198,7 +8198,7 @@
         <v>180</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K185" s="4">
         <v>8.6</v>
@@ -8207,21 +8207,21 @@
         <v>322456934</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12">
       <c r="A186" s="3">
         <v>183</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D186" s="5">
         <v>37361</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F186" s="5">
         <v>43931</v>
@@ -8236,7 +8236,7 @@
         <v>200</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K186" s="4">
         <v>9.1999999999999993</v>
@@ -8245,21 +8245,21 @@
         <v>249434487</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12">
       <c r="A187" s="3">
         <v>184</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D187" s="5">
         <v>36825</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F187" s="5">
         <v>43939</v>
@@ -8274,7 +8274,7 @@
         <v>160</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K187" s="4">
         <v>8.4</v>
@@ -8283,21 +8283,21 @@
         <v>343819001</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12">
       <c r="A188" s="3">
         <v>185</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D188" s="5">
         <v>30335</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F188" s="5">
         <v>43943</v>
@@ -8312,7 +8312,7 @@
         <v>180</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K188" s="4">
         <v>9</v>
@@ -8321,21 +8321,21 @@
         <v>278147799</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12">
       <c r="A189" s="3">
         <v>186</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D189" s="5">
         <v>37376</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F189" s="5">
         <v>43946</v>
@@ -8350,7 +8350,7 @@
         <v>180</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K189" s="4">
         <v>9.4</v>
@@ -8359,21 +8359,21 @@
         <v>345184543</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12">
       <c r="A190" s="3">
         <v>187</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D190" s="5">
         <v>30453</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F190" s="5">
         <v>43950</v>
@@ -8388,7 +8388,7 @@
         <v>200</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="K190" s="4">
         <v>7.8</v>
@@ -8397,21 +8397,21 @@
         <v>283052395</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12">
       <c r="A191" s="3">
         <v>188</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D191" s="5">
         <v>34229</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F191" s="5">
         <v>44002</v>
@@ -8426,7 +8426,7 @@
         <v>240</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K191" s="4">
         <v>8.4</v>
@@ -8435,21 +8435,21 @@
         <v>304820686</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12">
       <c r="A192" s="3">
         <v>189</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D192" s="5">
         <v>37452</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F192" s="5">
         <v>44022</v>
@@ -8464,7 +8464,7 @@
         <v>200</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K192" s="4">
         <v>9.4</v>
@@ -8473,21 +8473,21 @@
         <v>332279492</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12">
       <c r="A193" s="3">
         <v>190</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D193" s="5">
         <v>37462</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F193" s="5">
         <v>44032</v>
@@ -8502,7 +8502,7 @@
         <v>240</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K193" s="4">
         <v>9.1999999999999993</v>
@@ -8511,21 +8511,21 @@
         <v>286398216</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12">
       <c r="A194" s="3">
         <v>191</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D194" s="5">
         <v>37491</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F194" s="5">
         <v>44061</v>
@@ -8540,7 +8540,7 @@
         <v>160</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K194" s="4">
         <v>8.8000000000000007</v>
@@ -8549,21 +8549,21 @@
         <v>382809734</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12">
       <c r="A195" s="3">
         <v>192</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D195" s="5">
         <v>31936</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F195" s="5">
         <v>44062</v>
@@ -8578,7 +8578,7 @@
         <v>160</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K195" s="4">
         <v>8.6</v>
@@ -8587,21 +8587,21 @@
         <v>389913039</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12">
       <c r="A196" s="3">
         <v>193</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D196" s="5">
         <v>29969</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F196" s="5">
         <v>44074</v>
@@ -8616,7 +8616,7 @@
         <v>180</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K196" s="4">
         <v>8.4</v>
@@ -8625,21 +8625,21 @@
         <v>256941032</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12">
       <c r="A197" s="3">
         <v>194</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D197" s="5">
         <v>33960</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F197" s="5">
         <v>44078</v>
@@ -8654,7 +8654,7 @@
         <v>200</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K197" s="4">
         <v>9</v>
@@ -8663,21 +8663,21 @@
         <v>254378773</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12">
       <c r="A198" s="3">
         <v>195</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D198" s="5">
         <v>29521</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F198" s="5">
         <v>44084</v>
@@ -8692,7 +8692,7 @@
         <v>160</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K198" s="4">
         <v>8.1999999999999993</v>
@@ -8701,21 +8701,21 @@
         <v>327965849</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12">
       <c r="A199" s="3">
         <v>196</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D199" s="5">
         <v>37524</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F199" s="5">
         <v>44094</v>
@@ -8730,7 +8730,7 @@
         <v>240</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K199" s="4">
         <v>9</v>
@@ -8739,21 +8739,21 @@
         <v>293029263</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12">
       <c r="A200" s="3">
         <v>197</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D200" s="5">
         <v>35899</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F200" s="5">
         <v>44095</v>
@@ -8768,7 +8768,7 @@
         <v>180</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K200" s="4">
         <v>7.8</v>
@@ -8777,21 +8777,21 @@
         <v>361662111</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12">
       <c r="A201" s="3">
         <v>198</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D201" s="5">
         <v>37568</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F201" s="5">
         <v>44138</v>
@@ -8806,7 +8806,7 @@
         <v>200</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K201" s="4">
         <v>8.4</v>
@@ -8815,21 +8815,21 @@
         <v>284643526</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12">
       <c r="A202" s="3">
         <v>199</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D202" s="5">
         <v>30007</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F202" s="5">
         <v>44162</v>
@@ -8844,7 +8844,7 @@
         <v>240</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K202" s="4">
         <v>7.8</v>
@@ -8853,21 +8853,21 @@
         <v>282175003</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12">
       <c r="A203" s="3">
         <v>200</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D203" s="5">
         <v>37604</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F203" s="5">
         <v>44174</v>
@@ -8882,7 +8882,7 @@
         <v>240</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K203" s="4">
         <v>7.4</v>
@@ -8891,21 +8891,21 @@
         <v>395951165</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12">
       <c r="A204" s="3">
         <v>201</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D204" s="5">
         <v>37624</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F204" s="5">
         <v>44194</v>
@@ -8920,7 +8920,7 @@
         <v>200</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K204" s="4">
         <v>7.4</v>
@@ -8929,21 +8929,21 @@
         <v>249580568</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12">
       <c r="A205" s="3">
         <v>202</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D205" s="5">
         <v>35940</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F205" s="5">
         <v>44222</v>
@@ -8958,7 +8958,7 @@
         <v>160</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="K205" s="4">
         <v>6.6</v>
@@ -8967,21 +8967,21 @@
         <v>276861561</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12">
       <c r="A206" s="3">
         <v>203</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D206" s="5">
         <v>37657</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F206" s="5">
         <v>44227</v>
@@ -8996,7 +8996,7 @@
         <v>160</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K206" s="4">
         <v>6</v>
@@ -9005,21 +9005,21 @@
         <v>395761764</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12">
       <c r="A207" s="3">
         <v>204</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D207" s="5">
         <v>37090</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F207" s="5">
         <v>44228</v>
@@ -9034,7 +9034,7 @@
         <v>240</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="K207" s="4">
         <v>7.2</v>
@@ -9043,21 +9043,21 @@
         <v>384995303</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12">
       <c r="A208" s="3">
         <v>205</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D208" s="5">
         <v>31144</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F208" s="5">
         <v>44242</v>
@@ -9072,7 +9072,7 @@
         <v>180</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K208" s="4">
         <v>6.8</v>
@@ -9081,21 +9081,21 @@
         <v>391443342</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12">
       <c r="A209" s="3">
         <v>206</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D209" s="5">
         <v>33612</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="F209" s="5">
         <v>44249</v>
@@ -9110,7 +9110,7 @@
         <v>180</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K209" s="4">
         <v>8.1999999999999993</v>
@@ -9119,21 +9119,21 @@
         <v>256983656</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12">
       <c r="A210" s="3">
         <v>207</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D210" s="5">
         <v>37693</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F210" s="5">
         <v>44263</v>
@@ -9148,7 +9148,7 @@
         <v>180</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K210" s="4">
         <v>8</v>
@@ -9157,21 +9157,21 @@
         <v>395765000</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12">
       <c r="A211" s="3">
         <v>208</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D211" s="5">
         <v>32102</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F211" s="5">
         <v>44263</v>
@@ -9186,7 +9186,7 @@
         <v>160</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K211" s="4">
         <v>9</v>
@@ -9195,21 +9195,21 @@
         <v>324910961</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12">
       <c r="A212" s="3">
         <v>209</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D212" s="5">
         <v>31671</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F212" s="5">
         <v>44285</v>
@@ -9224,7 +9224,7 @@
         <v>160</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K212" s="4">
         <v>8.8000000000000007</v>
@@ -9233,21 +9233,21 @@
         <v>239272692</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12">
       <c r="A213" s="3">
         <v>210</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D213" s="5">
         <v>37744</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F213" s="5">
         <v>44314</v>
@@ -9262,7 +9262,7 @@
         <v>240</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K213" s="4">
         <v>8.8000000000000007</v>
@@ -9271,21 +9271,21 @@
         <v>231156539</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12">
       <c r="A214" s="3">
         <v>211</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D214" s="5">
         <v>37749</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F214" s="5">
         <v>44319</v>
@@ -9300,7 +9300,7 @@
         <v>180</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K214" s="4">
         <v>7.6</v>
@@ -9309,21 +9309,21 @@
         <v>326908443</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12">
       <c r="A215" s="3">
         <v>212</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D215" s="5">
         <v>33426</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F215" s="5">
         <v>44330</v>
@@ -9338,7 +9338,7 @@
         <v>200</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K215" s="4">
         <v>9.1999999999999993</v>
@@ -9347,21 +9347,21 @@
         <v>332576992</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12">
       <c r="A216" s="3">
         <v>213</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D216" s="5">
         <v>37767</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F216" s="5">
         <v>44337</v>
@@ -9376,7 +9376,7 @@
         <v>200</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="K216" s="4">
         <v>9</v>
@@ -9385,21 +9385,21 @@
         <v>403427145</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12">
       <c r="A217" s="3">
         <v>214</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D217" s="5">
         <v>37768</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="F217" s="5">
         <v>44338</v>
@@ -9414,7 +9414,7 @@
         <v>160</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="K217" s="4">
         <v>6.6</v>
@@ -9423,21 +9423,21 @@
         <v>348382863</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12">
       <c r="A218" s="3">
         <v>215</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>5</v>
+        <v>259</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D218" s="5">
         <v>37759</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F218" s="5">
         <v>44358</v>
@@ -9452,7 +9452,7 @@
         <v>240</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K218" s="4">
         <v>9.1999999999999993</v>
@@ -9461,21 +9461,21 @@
         <v>353309169</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12">
       <c r="A219" s="3">
         <v>216</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D219" s="5">
         <v>37163</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F219" s="5">
         <v>44366</v>
@@ -9490,7 +9490,7 @@
         <v>160</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K219" s="4">
         <v>9</v>
@@ -9499,21 +9499,21 @@
         <v>231761697</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12">
       <c r="A220" s="3">
         <v>217</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D220" s="5">
         <v>37799</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F220" s="5">
         <v>44369</v>
@@ -9528,7 +9528,7 @@
         <v>200</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K220" s="4">
         <v>9.4</v>
@@ -9537,21 +9537,21 @@
         <v>408884229</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12">
       <c r="A221" s="3">
         <v>218</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D221" s="5">
         <v>30975</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F221" s="5">
         <v>44373</v>
@@ -9566,7 +9566,7 @@
         <v>180</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K221" s="4">
         <v>8.8000000000000007</v>
@@ -9575,21 +9575,21 @@
         <v>322536279</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12">
       <c r="A222" s="3">
         <v>219</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D222" s="5">
         <v>30140</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="F222" s="5">
         <v>44375</v>
@@ -9604,7 +9604,7 @@
         <v>160</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="K222" s="4">
         <v>8.1999999999999993</v>
@@ -9613,21 +9613,21 @@
         <v>318542895</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12">
       <c r="A223" s="3">
         <v>220</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D223" s="5">
         <v>31391</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F223" s="5">
         <v>44395</v>
@@ -9642,7 +9642,7 @@
         <v>240</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K223" s="4">
         <v>8.1999999999999993</v>
@@ -9651,21 +9651,21 @@
         <v>435395290</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12">
       <c r="A224" s="3">
         <v>221</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D224" s="5">
         <v>30953</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F224" s="5">
         <v>44433</v>
@@ -9680,7 +9680,7 @@
         <v>180</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K224" s="4">
         <v>8.4</v>
@@ -9689,21 +9689,21 @@
         <v>357207275</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12">
       <c r="A225" s="3">
         <v>222</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D225" s="5">
         <v>36147</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F225" s="5">
         <v>44433</v>
@@ -9718,7 +9718,7 @@
         <v>200</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="K225" s="4">
         <v>6.6</v>
@@ -9727,21 +9727,21 @@
         <v>222922370</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12">
       <c r="A226" s="3">
         <v>223</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D226" s="5">
         <v>35180</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="F226" s="5">
         <v>44454</v>
@@ -9756,7 +9756,7 @@
         <v>240</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="K226" s="4">
         <v>9.6</v>
@@ -9765,21 +9765,21 @@
         <v>251118381</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12">
       <c r="A227" s="3">
         <v>224</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D227" s="5">
         <v>30067</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="F227" s="5">
         <v>44462</v>
@@ -9794,7 +9794,7 @@
         <v>180</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="K227" s="4">
         <v>6.6</v>
@@ -9803,21 +9803,21 @@
         <v>431232214</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12">
       <c r="A228" s="3">
         <v>225</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D228" s="5">
         <v>37910</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F228" s="5">
         <v>44480</v>
@@ -9832,7 +9832,7 @@
         <v>160</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K228" s="4">
         <v>8.6</v>
@@ -9841,21 +9841,21 @@
         <v>411234157</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12">
       <c r="A229" s="3">
         <v>226</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D229" s="5">
         <v>30078</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F229" s="5">
         <v>44493</v>
@@ -9870,7 +9870,7 @@
         <v>160</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K229" s="4">
         <v>8.4</v>
@@ -9879,21 +9879,21 @@
         <v>270689387</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12">
       <c r="A230" s="3">
         <v>227</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D230" s="5">
         <v>37926</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="F230" s="5">
         <v>44496</v>
@@ -9908,7 +9908,7 @@
         <v>180</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="K230" s="4">
         <v>9</v>
@@ -9917,21 +9917,21 @@
         <v>403933803</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12">
       <c r="A231" s="3">
         <v>228</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D231" s="5">
         <v>32224</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F231" s="5">
         <v>44500</v>
@@ -9946,7 +9946,7 @@
         <v>160</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K231" s="4">
         <v>7.2</v>
@@ -9955,21 +9955,21 @@
         <v>235960655</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12">
       <c r="A232" s="3">
         <v>229</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D232" s="5">
         <v>30815</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F232" s="5">
         <v>44552</v>
@@ -9984,7 +9984,7 @@
         <v>180</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="K232" s="4">
         <v>5.4</v>
@@ -9993,21 +9993,21 @@
         <v>352754020</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12">
       <c r="A233" s="3">
         <v>230</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D233" s="5">
         <v>37954</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F233" s="5">
         <v>44616</v>
@@ -10022,7 +10022,7 @@
         <v>180</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="K233" s="4">
         <v>8.8000000000000007</v>
@@ -10031,21 +10031,21 @@
         <v>306311326</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12">
       <c r="A234" s="3">
         <v>231</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D234" s="5">
         <v>37954</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F234" s="5">
         <v>44662</v>
@@ -10060,7 +10060,7 @@
         <v>240</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="K234" s="4">
         <v>8.1999999999999993</v>
@@ -10069,21 +10069,21 @@
         <v>345577047</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12">
       <c r="A235" s="3">
         <v>232</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D235" s="5">
         <v>37958</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="F235" s="5">
         <v>44740</v>
@@ -10098,7 +10098,7 @@
         <v>160</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="K235" s="4">
         <v>8.4</v>
@@ -10107,21 +10107,21 @@
         <v>305184932</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12">
       <c r="A236" s="3">
         <v>233</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D236" s="5">
         <v>37967</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="F236" s="5">
         <v>44811</v>
@@ -10136,7 +10136,7 @@
         <v>160</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="K236" s="4">
         <v>8.8000000000000007</v>
@@ -10145,21 +10145,21 @@
         <v>427308709</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12">
       <c r="A237" s="3">
         <v>234</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="D237" s="5">
         <v>37967</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F237" s="5">
         <v>44841</v>
@@ -10174,7 +10174,7 @@
         <v>180</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K237" s="4">
         <v>8.1999999999999993</v>
